--- a/AllTime/ALLTIME Ranks through 2017 tosee.xlsx
+++ b/AllTime/ALLTIME Ranks through 2017 tosee.xlsx
@@ -16,7 +16,6 @@
     <sheet name="DATA" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -813,9 +812,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -837,6 +833,9 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -11899,7 +11898,7 @@
   <dimension ref="A1:BI100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11931,95 +11930,95 @@
     <col min="62" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="66" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:61" s="65" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="60" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="60"/>
-      <c r="U1" s="62" t="str">
+      <c r="T1" s="67"/>
+      <c r="U1" s="61" t="str">
         <f>DATA!AC2</f>
         <v>Team</v>
       </c>
-      <c r="V1" s="62" t="str">
+      <c r="V1" s="61" t="str">
         <f>DATA!AD2</f>
         <v>Owner-Year</v>
       </c>
-      <c r="W1" s="63" t="str">
+      <c r="W1" s="62" t="str">
         <f>DATA!AE2</f>
         <v>Power</v>
       </c>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="60" t="s">
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="64" t="s">
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="AC1" s="65" t="s">
+      <c r="AC1" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="AD1" s="65" t="s">
+      <c r="AD1" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="AE1" s="65" t="s">
+      <c r="AE1" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="AF1" s="65" t="s">
+      <c r="AF1" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="AG1" s="64" t="s">
+      <c r="AG1" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="61"/>
-      <c r="BE1" s="61"/>
-      <c r="BF1" s="61"/>
-      <c r="BG1" s="61"/>
-      <c r="BH1" s="61"/>
-      <c r="BI1" s="61"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
     </row>
     <row r="2" spans="1:61" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
@@ -12120,7 +12119,7 @@
       <c r="C3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="67"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="38" t="s">
         <v>87</v>
       </c>
@@ -16758,7 +16757,7 @@
       <c r="AF100" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8CZKc+LherOSDMOJCTecdIqvEr6n1+0YfF/857gzYfPhxx1T1956PXiiJFPnYNgB7D+8w9uJqwZTHOp3o+qJwg==" saltValue="jEdtnKfOBAhJryQF/W3DBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FVoOERP8Bqt09jOsVd9jNOnz/I1uAeleWi8ihJC48KIOENBVHeBio7MVkMl/pP/49pgUZTPbQbXAnXaA/gBEnA==" saltValue="JYZbLf8JtMz7+y1V+kqHrg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -16769,12 +16768,18 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$BO$3:$BO$19</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:D3</xm:sqref>
+          <xm:sqref>D3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DATA!$BO$3:$BO$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16787,7 +16792,7 @@
   <dimension ref="A1:CB58"/>
   <sheetViews>
     <sheetView topLeftCell="AO1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="BI2" sqref="BI2"/>
+      <selection activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17003,14 +17008,14 @@
       <c r="BJ2" s="14"/>
       <c r="BN2" s="2">
         <f>RANK(BP2,$BP:$BP)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BO2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BP2" s="2">
         <f t="shared" ref="BP2:BP17" si="0">SUMIF($F:$F,BO2,S:S)</f>
-        <v>5.842737444682629</v>
+        <v>0.28074061285229968</v>
       </c>
       <c r="BQ2" s="2">
         <f t="shared" ref="BQ2:BQ17" si="1">COUNTIF(F:F,$BO2)</f>
@@ -17018,11 +17023,11 @@
       </c>
       <c r="BR2" s="2">
         <f>BP2/BQ2</f>
-        <v>1.1685474889365257</v>
+        <v>5.6148122570459938E-2</v>
       </c>
       <c r="BS2" s="2">
         <f>RANK(BR2,BR:BR)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BU2" s="8">
         <v>1</v>
@@ -17155,71 +17160,71 @@
         <v>3.0664433795061998</v>
       </c>
       <c r="AF3" s="3">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" ref="AF3:AP12" si="9">INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AF$2,2))</f>
         <v>94.185400598372212</v>
       </c>
       <c r="AG3" s="3">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="9"/>
         <v>108.0506623842124</v>
       </c>
       <c r="AH3" s="3">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="9"/>
         <v>82.315991433657132</v>
       </c>
       <c r="AI3" s="3">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="9"/>
         <v>91.369727770227485</v>
       </c>
       <c r="AJ3" s="3">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="9"/>
         <v>103.2096679497332</v>
       </c>
       <c r="AK3" s="3">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="9"/>
         <v>114.16677127310599</v>
       </c>
       <c r="AL3" s="3">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="9"/>
         <v>113.06326136645643</v>
       </c>
       <c r="AM3" s="3">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="9"/>
         <v>91.535341514796386</v>
       </c>
       <c r="AN3" s="3">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="9"/>
         <v>122.61699605725315</v>
       </c>
       <c r="AO3" s="3">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="9"/>
         <v>107.25841631510421</v>
       </c>
       <c r="AP3" s="3">
-        <f>INDEX($F:$R,MATCH($AA3,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="9"/>
         <v>118.31182273824533</v>
       </c>
       <c r="BN3" s="2">
-        <f t="shared" ref="BN3:BN17" si="9">RANK(BP3,$BP:$BP)</f>
-        <v>11</v>
+        <f t="shared" ref="BN3:BN17" si="10">RANK(BP3,$BP:$BP)</f>
+        <v>14</v>
       </c>
       <c r="BO3" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BP3" s="2">
         <f t="shared" si="0"/>
-        <v>0.28074061285229968</v>
+        <v>-0.62737575575544446</v>
       </c>
       <c r="BQ3" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BR3" s="2">
-        <f t="shared" ref="BR3:BR17" si="10">BP3/BQ3</f>
-        <v>5.6148122570459938E-2</v>
+        <f t="shared" ref="BR3:BR17" si="11">BP3/BQ3</f>
+        <v>-0.2091252519184815</v>
       </c>
       <c r="BS3" s="2">
-        <f t="shared" ref="BS3:BS17" si="11">RANK(BR3,BR:BR)</f>
-        <v>11</v>
+        <f t="shared" ref="BS3:BS17" si="12">RANK(BR3,BR:BR)</f>
+        <v>13</v>
       </c>
       <c r="BU3" s="8">
         <v>2</v>
@@ -17229,7 +17234,7 @@
         <v>Pranay</v>
       </c>
       <c r="BW3" s="6">
-        <f t="shared" ref="BW3:BW18" si="12">ROUND(INDEX(BP:BP,MATCH(BV3,BO:BO,0)),2)</f>
+        <f t="shared" ref="BW3:BW18" si="13">ROUND(INDEX(BP:BP,MATCH(BV3,BO:BO,0)),2)</f>
         <v>5.84</v>
       </c>
       <c r="BX3" s="6">
@@ -17241,11 +17246,11 @@
         <v>1.17</v>
       </c>
       <c r="BZ3" s="3">
-        <f t="shared" ref="BZ3:BZ18" si="13">IF(SUMIF(F:F,BV3,X:X)&gt;0,SUMIF(F:F,BV3,X:X),0)</f>
+        <f t="shared" ref="BZ3:BZ18" si="14">IF(SUMIF(F:F,BV3,X:X)&gt;0,SUMIF(F:F,BV3,X:X),0)</f>
         <v>0</v>
       </c>
       <c r="CA3" s="3">
-        <f t="shared" ref="CA3:CA18" si="14">IF(SUMIF(F:F,BV3,X:X)&lt;0,-SUMIF(F:F,BV3,X:X),0)</f>
+        <f t="shared" ref="CA3:CA18" si="15">IF(SUMIF(F:F,BV3,X:X)&lt;0,-SUMIF(F:F,BV3,X:X),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -17257,11 +17262,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="10">
-        <f t="shared" ref="C4:C48" si="15">RANK(U4,$U$3:$U$58)</f>
+        <f t="shared" ref="C4:C48" si="16">RANK(U4,$U$3:$U$58)</f>
         <v>14</v>
       </c>
       <c r="D4" s="10">
-        <f t="shared" ref="D4:D58" si="16">RANK(S4,$S$3:$S$48)</f>
+        <f t="shared" ref="D4:D58" si="17">RANK(S4,$S$3:$S$48)</f>
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -17271,7 +17276,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="9" t="str">
-        <f t="shared" ref="G4:G58" si="17">F4&amp;"-"&amp;$A4</f>
+        <f t="shared" ref="G4:G58" si="18">F4&amp;"-"&amp;$A4</f>
         <v>Galit-2014</v>
       </c>
       <c r="H4" s="9">
@@ -17308,14 +17313,14 @@
         <v>103.21163983096702</v>
       </c>
       <c r="S4" s="9">
-        <f t="shared" ref="S4:S12" si="18">(AVERAGE(H4:R4)-AVERAGE($H$3:$R$12))/(_xlfn.STDEV.P($H$3:$R$12)*_xlfn.STDEV.P(H4:R4))+(R4-AVERAGE($R$3:$R$12))/_xlfn.STDEV.P($R$3:$R$12)+(MAX($W$3:$W$12)-W4)/MAX($W$3:$W$12)</f>
+        <f t="shared" ref="S4:S12" si="19">(AVERAGE(H4:R4)-AVERAGE($H$3:$R$12))/(_xlfn.STDEV.P($H$3:$R$12)*_xlfn.STDEV.P(H4:R4))+(R4-AVERAGE($R$3:$R$12))/_xlfn.STDEV.P($R$3:$R$12)+(MAX($W$3:$W$12)-W4)/MAX($W$3:$W$12)</f>
         <v>1.9421723238131785</v>
       </c>
       <c r="T4" s="9">
         <v>7.3333333333333321</v>
       </c>
       <c r="U4" s="9">
-        <f t="shared" ref="U4:U38" si="19">T4/13</f>
+        <f t="shared" ref="U4:U38" si="20">T4/13</f>
         <v>0.56410256410256399</v>
       </c>
       <c r="V4" s="9">
@@ -17325,7 +17330,7 @@
         <v>2</v>
       </c>
       <c r="X4" s="9" t="str">
-        <f t="shared" ref="X4:X12" si="20">IF(W4=MAX($W$3:$W$12),-1,IF(W4=1,1,""))</f>
+        <f t="shared" ref="X4:X12" si="21">IF(W4=MAX($W$3:$W$12),-1,IF(W4=1,1,""))</f>
         <v/>
       </c>
       <c r="AA4" s="3">
@@ -17348,71 +17353,71 @@
         <v>2.9053416676567272</v>
       </c>
       <c r="AF4" s="3">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="9"/>
         <v>107.37871612577005</v>
       </c>
       <c r="AG4" s="3">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="9"/>
         <v>85.328830298823149</v>
       </c>
       <c r="AH4" s="3">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="9"/>
         <v>95.217789751420042</v>
       </c>
       <c r="AI4" s="3">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="9"/>
         <v>86.256201079242302</v>
       </c>
       <c r="AJ4" s="3">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="9"/>
         <v>92.996449816342988</v>
       </c>
       <c r="AK4" s="3">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="9"/>
         <v>91.059515455974804</v>
       </c>
       <c r="AL4" s="3">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="9"/>
         <v>97.276191992418333</v>
       </c>
       <c r="AM4" s="3">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="9"/>
         <v>100.76443915904581</v>
       </c>
       <c r="AN4" s="3">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="9"/>
         <v>102.14106022978487</v>
       </c>
       <c r="AO4" s="3">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="9"/>
         <v>107.3174336526064</v>
       </c>
       <c r="AP4" s="3">
-        <f>INDEX($F:$R,MATCH($AA4,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="9"/>
         <v>108.44858076760882</v>
       </c>
       <c r="BN4" s="2">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="BO4" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="BP4" s="2">
         <f t="shared" si="0"/>
-        <v>3.1499881678460735</v>
+        <v>2.8415963914284608</v>
       </c>
       <c r="BQ4" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BR4" s="2">
-        <f t="shared" si="10"/>
-        <v>1.5749940839230367</v>
+        <f t="shared" si="11"/>
+        <v>0.56831927828569218</v>
       </c>
       <c r="BS4" s="2">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="BU4" s="8">
         <v>3</v>
@@ -17422,7 +17427,7 @@
         <v>Mili/Vinay</v>
       </c>
       <c r="BW4" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.77</v>
       </c>
       <c r="BX4" s="6">
@@ -17434,11 +17439,11 @@
         <v>1.44</v>
       </c>
       <c r="BZ4" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CA4" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -17450,11 +17455,11 @@
         <v>3</v>
       </c>
       <c r="C5" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="D5" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -17464,7 +17469,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Ally-2014</v>
       </c>
       <c r="H5" s="9">
@@ -17501,14 +17506,14 @@
         <v>85.3755746604009</v>
       </c>
       <c r="S5" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.55904118319066853</v>
       </c>
       <c r="T5" s="9">
         <v>7.2222222222222223</v>
       </c>
       <c r="U5" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="V5" s="9">
@@ -17518,7 +17523,7 @@
         <v>5</v>
       </c>
       <c r="X5" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AA5" s="3">
@@ -17541,71 +17546,71 @@
         <v>2.3671884607784639</v>
       </c>
       <c r="AF5" s="3">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="9"/>
         <v>85.689288581176001</v>
       </c>
       <c r="AG5" s="3">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="9"/>
         <v>89.379442880619806</v>
       </c>
       <c r="AH5" s="3">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="9"/>
         <v>89.505986318840556</v>
       </c>
       <c r="AI5" s="3">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="9"/>
         <v>96.737159046456654</v>
       </c>
       <c r="AJ5" s="3">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="9"/>
         <v>99.957876172449673</v>
       </c>
       <c r="AK5" s="3">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="9"/>
         <v>93.289701055700135</v>
       </c>
       <c r="AL5" s="3">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="9"/>
         <v>98.955533768604951</v>
       </c>
       <c r="AM5" s="3">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="9"/>
         <v>95.199406199144462</v>
       </c>
       <c r="AN5" s="3">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="9"/>
         <v>89.277888791854508</v>
       </c>
       <c r="AO5" s="3">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="9"/>
         <v>96.903150003964129</v>
       </c>
       <c r="AP5" s="3">
-        <f>INDEX($F:$R,MATCH($AA5,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="9"/>
         <v>96.903150003964129</v>
       </c>
       <c r="BN5" s="2">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>9</v>
       </c>
       <c r="BO5" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="BP5" s="2">
         <f t="shared" si="0"/>
-        <v>9.0510899483722564</v>
+        <v>0.44931419906792613</v>
       </c>
       <c r="BQ5" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BR5" s="2">
-        <f t="shared" si="10"/>
-        <v>1.8102179896744512</v>
+        <f t="shared" si="11"/>
+        <v>0.22465709953396307</v>
       </c>
       <c r="BS5" s="2">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>9</v>
       </c>
       <c r="BU5" s="8">
         <v>4</v>
@@ -17615,7 +17620,7 @@
         <v>Sherwin</v>
       </c>
       <c r="BW5" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.15</v>
       </c>
       <c r="BX5" s="6">
@@ -17627,11 +17632,11 @@
         <v>1.57</v>
       </c>
       <c r="BZ5" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="CA5" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -17643,11 +17648,11 @@
         <v>4</v>
       </c>
       <c r="C6" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="D6" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -17657,7 +17662,7 @@
         <v>24</v>
       </c>
       <c r="G6" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Muhamad-2014</v>
       </c>
       <c r="H6" s="9">
@@ -17694,14 +17699,14 @@
         <v>88.840292637018194</v>
       </c>
       <c r="S6" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.49043322153258229</v>
       </c>
       <c r="T6" s="9">
         <v>7.5555555555555545</v>
       </c>
       <c r="U6" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.58119658119658113</v>
       </c>
       <c r="V6" s="9">
@@ -17711,7 +17716,7 @@
         <v>7</v>
       </c>
       <c r="X6" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AA6" s="3">
@@ -17734,51 +17739,51 @@
         <v>2.3212509543629354</v>
       </c>
       <c r="AF6" s="3">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="9"/>
         <v>101.25144846627126</v>
       </c>
       <c r="AG6" s="3">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="9"/>
         <v>107.63787784209615</v>
       </c>
       <c r="AH6" s="3">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="9"/>
         <v>95.092655987025068</v>
       </c>
       <c r="AI6" s="3">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="9"/>
         <v>103.11139337381189</v>
       </c>
       <c r="AJ6" s="3">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="9"/>
         <v>108.43515641243737</v>
       </c>
       <c r="AK6" s="3">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="9"/>
         <v>106.6649148576173</v>
       </c>
       <c r="AL6" s="3">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="9"/>
         <v>95.724251778203367</v>
       </c>
       <c r="AM6" s="3">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="9"/>
         <v>102.80913620846437</v>
       </c>
       <c r="AN6" s="3">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="9"/>
         <v>102.74660379721669</v>
       </c>
       <c r="AO6" s="3">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="9"/>
         <v>92.234025941380892</v>
       </c>
       <c r="AP6" s="3">
-        <f>INDEX($F:$R,MATCH($AA6,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="9"/>
         <v>92.234025941380892</v>
       </c>
       <c r="BN6" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="BO6" s="7" t="s">
@@ -17793,11 +17798,11 @@
         <v>5</v>
       </c>
       <c r="BR6" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.677498492539985E-2</v>
       </c>
       <c r="BS6" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="BU6" s="8">
@@ -17808,7 +17813,7 @@
         <v>Caryn</v>
       </c>
       <c r="BW6" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.84</v>
       </c>
       <c r="BX6" s="6">
@@ -17820,11 +17825,11 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="BZ6" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="CA6" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -17836,11 +17841,11 @@
         <v>5</v>
       </c>
       <c r="C7" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18</v>
       </c>
       <c r="D7" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>33</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -17850,7 +17855,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Caryn-2014</v>
       </c>
       <c r="H7" s="9">
@@ -17887,14 +17892,14 @@
         <v>74.056833647840932</v>
       </c>
       <c r="S7" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.45932736220250275</v>
       </c>
       <c r="T7" s="9">
         <v>6.8888888888888884</v>
       </c>
       <c r="U7" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.52991452991452992</v>
       </c>
       <c r="V7" s="9">
@@ -17904,7 +17909,7 @@
         <v>8</v>
       </c>
       <c r="X7" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AA7" s="3">
@@ -17927,71 +17932,71 @@
         <v>2.1715725304465465</v>
       </c>
       <c r="AF7" s="3">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="9"/>
         <v>119.72664059356207</v>
       </c>
       <c r="AG7" s="3">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="9"/>
         <v>78.658652808329521</v>
       </c>
       <c r="AH7" s="3">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="9"/>
         <v>89.648921405185945</v>
       </c>
       <c r="AI7" s="3">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="9"/>
         <v>94.120287277533834</v>
       </c>
       <c r="AJ7" s="3">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="9"/>
         <v>92.094877407431369</v>
       </c>
       <c r="AK7" s="3">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="9"/>
         <v>91.009654749403595</v>
       </c>
       <c r="AL7" s="3">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="9"/>
         <v>102.39715961855879</v>
       </c>
       <c r="AM7" s="3">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="9"/>
         <v>95.599092504556893</v>
       </c>
       <c r="AN7" s="3">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="9"/>
         <v>105.14102005157409</v>
       </c>
       <c r="AO7" s="3">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="9"/>
         <v>103.08508920832597</v>
       </c>
       <c r="AP7" s="3">
-        <f>INDEX($F:$R,MATCH($AA7,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="9"/>
         <v>95.22668598878802</v>
       </c>
       <c r="BN7" s="2">
-        <f t="shared" si="9"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>15</v>
       </c>
       <c r="BO7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="BP7" s="2">
         <f t="shared" si="0"/>
-        <v>0.44931419906792613</v>
+        <v>-2.2456690078764079</v>
       </c>
       <c r="BQ7" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BR7" s="2">
-        <f t="shared" si="10"/>
-        <v>0.22465709953396307</v>
+        <f t="shared" si="11"/>
+        <v>-0.4491338015752816</v>
       </c>
       <c r="BS7" s="2">
-        <f t="shared" si="11"/>
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="BU7" s="8">
         <v>6</v>
@@ -18001,7 +18006,7 @@
         <v>MattP</v>
       </c>
       <c r="BW7" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.43</v>
       </c>
       <c r="BX7" s="6">
@@ -18013,11 +18018,11 @@
         <v>0.71</v>
       </c>
       <c r="BZ7" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CA7" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -18029,11 +18034,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="D8" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>36</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -18043,7 +18048,7 @@
         <v>26</v>
       </c>
       <c r="G8" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Akshay-2014</v>
       </c>
       <c r="H8" s="9">
@@ -18080,14 +18085,14 @@
         <v>70.496301723984828</v>
       </c>
       <c r="S8" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.65088288701210339</v>
       </c>
       <c r="T8" s="9">
         <v>5.7777777777777777</v>
       </c>
       <c r="U8" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="V8" s="9">
@@ -18097,7 +18102,7 @@
         <v>6</v>
       </c>
       <c r="X8" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AA8" s="3">
@@ -18120,71 +18125,71 @@
         <v>1.9421723238131785</v>
       </c>
       <c r="AF8" s="3">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="9"/>
         <v>73.314998399207326</v>
       </c>
       <c r="AG8" s="3">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="9"/>
         <v>86.744625065083454</v>
       </c>
       <c r="AH8" s="3">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="9"/>
         <v>75.355254928116068</v>
       </c>
       <c r="AI8" s="3">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="9"/>
         <v>80.498873511596372</v>
       </c>
       <c r="AJ8" s="3">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="9"/>
         <v>88.125306344765846</v>
       </c>
       <c r="AK8" s="3">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="9"/>
         <v>96.045278683633754</v>
       </c>
       <c r="AL8" s="3">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="9"/>
         <v>94.836037535170334</v>
       </c>
       <c r="AM8" s="3">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="9"/>
         <v>81.70761724269596</v>
       </c>
       <c r="AN8" s="3">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="9"/>
         <v>85.622884472104204</v>
       </c>
       <c r="AO8" s="3">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="9"/>
         <v>78.820960507436752</v>
       </c>
       <c r="AP8" s="3">
-        <f>INDEX($F:$R,MATCH($AA8,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="9"/>
         <v>103.21163983096702</v>
       </c>
       <c r="BN8" s="2">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>13</v>
       </c>
       <c r="BO8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BP8" s="2">
         <f t="shared" si="0"/>
-        <v>5.7725758034769266</v>
+        <v>-0.29133424751426912</v>
       </c>
       <c r="BQ8" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BR8" s="2">
-        <f t="shared" si="10"/>
-        <v>1.4431439508692316</v>
+        <f t="shared" si="11"/>
+        <v>-0.29133424751426912</v>
       </c>
       <c r="BS8" s="2">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>14</v>
       </c>
       <c r="BU8" s="8">
         <v>7</v>
@@ -18194,7 +18199,7 @@
         <v>Tony</v>
       </c>
       <c r="BW8" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="BX8" s="6">
@@ -18206,11 +18211,11 @@
         <v>0.22</v>
       </c>
       <c r="BZ8" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CA8" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -18222,11 +18227,11 @@
         <v>7</v>
       </c>
       <c r="C9" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34</v>
       </c>
       <c r="D9" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -18236,7 +18241,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Tony-2014</v>
       </c>
       <c r="H9" s="9">
@@ -18273,14 +18278,14 @@
         <v>91.594250747750635</v>
       </c>
       <c r="S9" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0206632708815659</v>
       </c>
       <c r="T9" s="9">
         <v>5.666666666666667</v>
       </c>
       <c r="U9" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.4358974358974359</v>
       </c>
       <c r="V9" s="9">
@@ -18290,7 +18295,7 @@
         <v>4</v>
       </c>
       <c r="X9" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AA9" s="3">
@@ -18313,71 +18318,71 @@
         <v>1.7483143505877592</v>
       </c>
       <c r="AF9" s="3">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="9"/>
         <v>72.988739492412208</v>
       </c>
       <c r="AG9" s="3">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="9"/>
         <v>66.559324631495031</v>
       </c>
       <c r="AH9" s="3">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="9"/>
         <v>71.238420401846895</v>
       </c>
       <c r="AI9" s="3">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="9"/>
         <v>85.506173591655681</v>
       </c>
       <c r="AJ9" s="3">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="9"/>
         <v>79.091417302654861</v>
       </c>
       <c r="AK9" s="3">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="9"/>
         <v>80.979163047946457</v>
       </c>
       <c r="AL9" s="3">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="9"/>
         <v>86.930905403229517</v>
       </c>
       <c r="AM9" s="3">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="9"/>
         <v>87.692340722861516</v>
       </c>
       <c r="AN9" s="3">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="9"/>
         <v>94.019241942362669</v>
       </c>
       <c r="AO9" s="3">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="9"/>
         <v>102.33311735556391</v>
       </c>
       <c r="AP9" s="3">
-        <f>INDEX($F:$R,MATCH($AA9,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="9"/>
         <v>95.478730337962247</v>
       </c>
       <c r="BN9" s="2">
-        <f t="shared" si="9"/>
-        <v>15</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="BO9" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="BP9" s="2">
         <f t="shared" si="0"/>
-        <v>-2.2456690078764079</v>
+        <v>1.4255123249504491</v>
       </c>
       <c r="BQ9" s="2">
         <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="BR9" s="2">
+        <f t="shared" si="11"/>
+        <v>0.71275616247522455</v>
+      </c>
+      <c r="BS9" s="2">
+        <f t="shared" si="12"/>
         <v>5</v>
-      </c>
-      <c r="BR9" s="2">
-        <f t="shared" si="10"/>
-        <v>-0.4491338015752816</v>
-      </c>
-      <c r="BS9" s="2">
-        <f t="shared" si="11"/>
-        <v>15</v>
       </c>
       <c r="BU9" s="8">
         <v>8</v>
@@ -18387,7 +18392,7 @@
         <v>Muhamad</v>
       </c>
       <c r="BW9" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.49</v>
       </c>
       <c r="BX9" s="6">
@@ -18399,11 +18404,11 @@
         <v>0.49</v>
       </c>
       <c r="BZ9" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CA9" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -18415,11 +18420,11 @@
         <v>8</v>
       </c>
       <c r="C10" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36</v>
       </c>
       <c r="D10" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -18429,7 +18434,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Pranay-2014</v>
       </c>
       <c r="H10" s="9">
@@ -18466,14 +18471,14 @@
         <v>88.455403734703609</v>
       </c>
       <c r="S10" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.94481008292727364</v>
       </c>
       <c r="T10" s="9">
         <v>5.4444444444444446</v>
       </c>
       <c r="U10" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.41880341880341881</v>
       </c>
       <c r="V10" s="9">
@@ -18483,7 +18488,7 @@
         <v>3</v>
       </c>
       <c r="X10" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AA10" s="3">
@@ -18506,71 +18511,71 @@
         <v>1.6708186390339921</v>
       </c>
       <c r="AF10" s="3">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="9"/>
         <v>93.628556843145518</v>
       </c>
       <c r="AG10" s="3">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="9"/>
         <v>110.53467811481752</v>
       </c>
       <c r="AH10" s="3">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="9"/>
         <v>109.67798567945444</v>
       </c>
       <c r="AI10" s="3">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="9"/>
         <v>105.9439284411805</v>
       </c>
       <c r="AJ10" s="3">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="9"/>
         <v>114.96906432406287</v>
       </c>
       <c r="AK10" s="3">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="9"/>
         <v>96.820852906478677</v>
       </c>
       <c r="AL10" s="3">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="9"/>
         <v>92.105192334499506</v>
       </c>
       <c r="AM10" s="3">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="9"/>
         <v>99.210682552298337</v>
       </c>
       <c r="AN10" s="3">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="9"/>
         <v>90.108597917278146</v>
       </c>
       <c r="AO10" s="3">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="9"/>
         <v>95.070514906432038</v>
       </c>
       <c r="AP10" s="3">
-        <f>INDEX($F:$R,MATCH($AA10,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="9"/>
         <v>90.637548236234466</v>
       </c>
       <c r="BN10" s="2">
-        <f t="shared" si="9"/>
-        <v>16</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="BO10" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="BP10" s="2">
         <f t="shared" si="0"/>
-        <v>-4.6779622407093271</v>
+        <v>5.7725758034769266</v>
       </c>
       <c r="BQ10" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BR10" s="2">
-        <f t="shared" si="10"/>
-        <v>-1.1694905601773318</v>
+        <f t="shared" si="11"/>
+        <v>1.4431439508692316</v>
       </c>
       <c r="BS10" s="2">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="BU10" s="8">
         <v>9</v>
@@ -18580,7 +18585,7 @@
         <v>Charles</v>
       </c>
       <c r="BW10" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.45</v>
       </c>
       <c r="BX10" s="6">
@@ -18592,11 +18597,11 @@
         <v>0.22</v>
       </c>
       <c r="BZ10" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CA10" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -18608,11 +18613,11 @@
         <v>9</v>
       </c>
       <c r="C11" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40</v>
       </c>
       <c r="D11" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -18622,7 +18627,7 @@
         <v>31</v>
       </c>
       <c r="G11" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Jeff-2014</v>
       </c>
       <c r="H11" s="9">
@@ -18659,14 +18664,14 @@
         <v>73.60122143113324</v>
       </c>
       <c r="S11" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.73414845471252133</v>
       </c>
       <c r="T11" s="9">
         <v>4.4444444444444446</v>
       </c>
       <c r="U11" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.34188034188034189</v>
       </c>
       <c r="V11" s="9">
@@ -18676,7 +18681,7 @@
         <v>9</v>
       </c>
       <c r="X11" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AA11" s="3">
@@ -18699,71 +18704,71 @@
         <v>1.6550235805578595</v>
       </c>
       <c r="AF11" s="3">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="9"/>
         <v>90.363759796730392</v>
       </c>
       <c r="AG11" s="3">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="9"/>
         <v>92.47300621864116</v>
       </c>
       <c r="AH11" s="3">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="9"/>
         <v>81.655611520562687</v>
       </c>
       <c r="AI11" s="3">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="9"/>
         <v>91.386069592539215</v>
       </c>
       <c r="AJ11" s="3">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="9"/>
         <v>76.194631108053073</v>
       </c>
       <c r="AK11" s="3">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="9"/>
         <v>90.422586354085468</v>
       </c>
       <c r="AL11" s="3">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="9"/>
         <v>89.003404419312218</v>
       </c>
       <c r="AM11" s="3">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="9"/>
         <v>81.627813300171226</v>
       </c>
       <c r="AN11" s="3">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="9"/>
         <v>88.832488298583343</v>
       </c>
       <c r="AO11" s="3">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="9"/>
         <v>89.584523299494037</v>
       </c>
       <c r="AP11" s="3">
-        <f>INDEX($F:$R,MATCH($AA11,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="9"/>
         <v>88.817246231360656</v>
       </c>
       <c r="BN11" s="2">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>8</v>
       </c>
       <c r="BO11" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="BP11" s="2">
         <f t="shared" si="0"/>
-        <v>1.4255123249504491</v>
+        <v>0.49043322153258229</v>
       </c>
       <c r="BQ11" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR11" s="2">
-        <f t="shared" si="10"/>
-        <v>0.71275616247522455</v>
+        <f t="shared" si="11"/>
+        <v>0.49043322153258229</v>
       </c>
       <c r="BS11" s="2">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>7</v>
       </c>
       <c r="BU11" s="8">
         <v>10</v>
@@ -18773,7 +18778,7 @@
         <v>Ross</v>
       </c>
       <c r="BW11" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.43</v>
       </c>
       <c r="BX11" s="6">
@@ -18785,11 +18790,11 @@
         <v>0.43</v>
       </c>
       <c r="BZ11" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CA11" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -18801,11 +18806,11 @@
         <v>10</v>
       </c>
       <c r="C12" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>39</v>
       </c>
       <c r="D12" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>44</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -18815,7 +18820,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Will-2014</v>
       </c>
       <c r="H12" s="9">
@@ -18852,14 +18857,14 @@
         <v>59.329142441202279</v>
       </c>
       <c r="S12" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1.6916173967696553</v>
       </c>
       <c r="T12" s="9">
         <v>4.666666666666667</v>
       </c>
       <c r="U12" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.35897435897435898</v>
       </c>
       <c r="V12" s="9">
@@ -18869,7 +18874,7 @@
         <v>10</v>
       </c>
       <c r="X12" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-1</v>
       </c>
       <c r="AA12" s="3">
@@ -18892,71 +18897,71 @@
         <v>1.6354335235044672</v>
       </c>
       <c r="AF12" s="3">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="9"/>
         <v>85.281718040517461</v>
       </c>
       <c r="AG12" s="3">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="9"/>
         <v>71.207616847902869</v>
       </c>
       <c r="AH12" s="3">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="9"/>
         <v>62.565963379889354</v>
       </c>
       <c r="AI12" s="3">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="9"/>
         <v>59.166296936416657</v>
       </c>
       <c r="AJ12" s="3">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="9"/>
         <v>65.993418115329789</v>
       </c>
       <c r="AK12" s="3">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="9"/>
         <v>76.126133167428918</v>
       </c>
       <c r="AL12" s="3">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="9"/>
         <v>82.999734048318956</v>
       </c>
       <c r="AM12" s="3">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="9"/>
         <v>90.528509018172684</v>
       </c>
       <c r="AN12" s="3">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="9"/>
         <v>85.362250728657642</v>
       </c>
       <c r="AO12" s="3">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="9"/>
         <v>82.567820277140711</v>
       </c>
       <c r="AP12" s="3">
-        <f>INDEX($F:$R,MATCH($AA12,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="9"/>
         <v>89.018900439733244</v>
       </c>
       <c r="BN12" s="2">
-        <f t="shared" si="9"/>
-        <v>13</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="BO12" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="BP12" s="2">
         <f t="shared" si="0"/>
-        <v>-0.29133424751426912</v>
+        <v>5.842737444682629</v>
       </c>
       <c r="BQ12" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BR12" s="2">
-        <f t="shared" si="10"/>
-        <v>-0.29133424751426912</v>
+        <f t="shared" si="11"/>
+        <v>1.1685474889365257</v>
       </c>
       <c r="BS12" s="2">
-        <f t="shared" si="11"/>
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
       <c r="BU12" s="8">
         <v>11</v>
@@ -18966,7 +18971,7 @@
         <v>Akshay</v>
       </c>
       <c r="BW12" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="BX12" s="6">
@@ -18978,11 +18983,11 @@
         <v>0.06</v>
       </c>
       <c r="BZ12" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CA12" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -18994,11 +18999,11 @@
         <v>1</v>
       </c>
       <c r="C13" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="D13" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -19008,7 +19013,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Pranay-2015</v>
       </c>
       <c r="H13" s="7">
@@ -19052,7 +19057,7 @@
         <v>10.000000000000002</v>
       </c>
       <c r="U13" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.76923076923076938</v>
       </c>
       <c r="V13" s="7">
@@ -19089,71 +19094,71 @@
         <v>1.577080746272159</v>
       </c>
       <c r="AF13" s="3">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" ref="AF13:AP22" si="22">INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AF$2,2))</f>
         <v>104.04749239269721</v>
       </c>
       <c r="AG13" s="3">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="22"/>
         <v>93.885019940142115</v>
       </c>
       <c r="AH13" s="3">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="22"/>
         <v>97.650105919862582</v>
       </c>
       <c r="AI13" s="3">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="22"/>
         <v>73.669756581460135</v>
       </c>
       <c r="AJ13" s="3">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="22"/>
         <v>83.111682300316374</v>
       </c>
       <c r="AK13" s="3">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="22"/>
         <v>75.216803914630816</v>
       </c>
       <c r="AL13" s="3">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="22"/>
         <v>82.635212988723865</v>
       </c>
       <c r="AM13" s="3">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="22"/>
         <v>94.749083346969798</v>
       </c>
       <c r="AN13" s="3">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="22"/>
         <v>92.072319455448124</v>
       </c>
       <c r="AO13" s="3">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="22"/>
         <v>86.940975841157865</v>
       </c>
       <c r="AP13" s="3">
-        <f>INDEX($F:$R,MATCH($AA13,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="22"/>
         <v>91.505458137399131</v>
       </c>
       <c r="BN13" s="2">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="BO13" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="BP13" s="2">
         <f t="shared" si="0"/>
-        <v>1.0873252958591939</v>
+        <v>9.0510899483722564</v>
       </c>
       <c r="BQ13" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="BR13" s="2">
-        <f t="shared" si="10"/>
-        <v>0.21746505917183878</v>
+        <f t="shared" si="11"/>
+        <v>1.8102179896744512</v>
       </c>
       <c r="BS13" s="2">
-        <f t="shared" si="11"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="BU13" s="8">
         <v>12</v>
@@ -19163,7 +19168,7 @@
         <v>Galit</v>
       </c>
       <c r="BW13" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.08</v>
       </c>
       <c r="BX13" s="6">
@@ -19175,11 +19180,11 @@
         <v>0.02</v>
       </c>
       <c r="BZ13" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CA13" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -19191,11 +19196,11 @@
         <v>2</v>
       </c>
       <c r="C14" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="D14" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -19205,7 +19210,7 @@
         <v>26</v>
       </c>
       <c r="G14" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Akshay-2015</v>
       </c>
       <c r="H14" s="7">
@@ -19242,14 +19247,14 @@
         <v>84.733686701843226</v>
       </c>
       <c r="S14" s="9">
-        <f t="shared" ref="S14:S25" si="21">(AVERAGE(H14:R14)-AVERAGE($H$13:$R$26))/(_xlfn.STDEV.P($H$13:$R$26)*_xlfn.STDEV.P(H14:R14))+(R14-AVERAGE($R$13:$R$26))/_xlfn.STDEV.P($R$13:$R$26)+(MAX($W$13:$W$26)-W14)/MAX($W$13:$W$26)</f>
+        <f t="shared" ref="S14:S25" si="23">(AVERAGE(H14:R14)-AVERAGE($H$13:$R$26))/(_xlfn.STDEV.P($H$13:$R$26)*_xlfn.STDEV.P(H14:R14))+(R14-AVERAGE($R$13:$R$26))/_xlfn.STDEV.P($R$13:$R$26)+(MAX($W$13:$W$26)-W14)/MAX($W$13:$W$26)</f>
         <v>1.441077573224546</v>
       </c>
       <c r="T14" s="7">
         <v>7.7692307692307701</v>
       </c>
       <c r="U14" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.59763313609467461</v>
       </c>
       <c r="V14" s="7">
@@ -19259,7 +19264,7 @@
         <v>2</v>
       </c>
       <c r="X14" s="7" t="str">
-        <f t="shared" ref="X14:X26" si="22">IF(W14=MAX($W$13:$W$26),-1,IF(W14=1,1,""))</f>
+        <f t="shared" ref="X14:X25" si="24">IF(W14=MAX($W$13:$W$26),-1,IF(W14=1,1,""))</f>
         <v/>
       </c>
       <c r="AA14" s="3">
@@ -19282,71 +19287,71 @@
         <v>1.5729074215739143</v>
       </c>
       <c r="AF14" s="3">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="22"/>
         <v>103.98785157118134</v>
       </c>
       <c r="AG14" s="3">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="22"/>
         <v>102.95986598801611</v>
       </c>
       <c r="AH14" s="3">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="22"/>
         <v>90.378923059833511</v>
       </c>
       <c r="AI14" s="3">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="22"/>
         <v>104.10800471598591</v>
       </c>
       <c r="AJ14" s="3">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="22"/>
         <v>93.996394061274003</v>
       </c>
       <c r="AK14" s="3">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="22"/>
         <v>109.58621616884078</v>
       </c>
       <c r="AL14" s="3">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="22"/>
         <v>103.81302980736275</v>
       </c>
       <c r="AM14" s="3">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="22"/>
         <v>99.778443060484392</v>
       </c>
       <c r="AN14" s="3">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="22"/>
         <v>84.343214019337097</v>
       </c>
       <c r="AO14" s="3">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="22"/>
         <v>81.27186706033514</v>
       </c>
       <c r="AP14" s="3">
-        <f>INDEX($F:$R,MATCH($AA14,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="22"/>
         <v>83.838219102116454</v>
       </c>
       <c r="BN14" s="2">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>10</v>
       </c>
       <c r="BO14" s="7" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="BP14" s="2">
         <f t="shared" si="0"/>
-        <v>2.8415963914284608</v>
+        <v>0.43112449246098622</v>
       </c>
       <c r="BQ14" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BR14" s="2">
-        <f t="shared" si="10"/>
-        <v>0.56831927828569218</v>
+        <f t="shared" si="11"/>
+        <v>0.43112449246098622</v>
       </c>
       <c r="BS14" s="2">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>8</v>
       </c>
       <c r="BU14" s="8">
         <v>13</v>
@@ -19356,7 +19361,7 @@
         <v>Joe</v>
       </c>
       <c r="BW14" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.28999999999999998</v>
       </c>
       <c r="BX14" s="6">
@@ -19368,11 +19373,11 @@
         <v>-0.28999999999999998</v>
       </c>
       <c r="BZ14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CA14" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -19384,11 +19389,11 @@
         <v>3</v>
       </c>
       <c r="C15" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="D15" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -19398,7 +19403,7 @@
         <v>34</v>
       </c>
       <c r="G15" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Sherwin-2015</v>
       </c>
       <c r="H15" s="7">
@@ -19435,14 +19440,14 @@
         <v>83.838219102116454</v>
       </c>
       <c r="S15" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.5729074215739143</v>
       </c>
       <c r="T15" s="7">
         <v>7.3076923076923066</v>
       </c>
       <c r="U15" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.56213017751479277</v>
       </c>
       <c r="V15" s="7">
@@ -19452,7 +19457,7 @@
         <v>1</v>
       </c>
       <c r="X15" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AA15" s="3">
@@ -19475,71 +19480,71 @@
         <v>1.441077573224546</v>
       </c>
       <c r="AF15" s="3">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="22"/>
         <v>126.11973571489759</v>
       </c>
       <c r="AG15" s="3">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="22"/>
         <v>54.924740803344307</v>
       </c>
       <c r="AH15" s="3">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="22"/>
         <v>62.246484828414381</v>
       </c>
       <c r="AI15" s="3">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="22"/>
         <v>64.479416948983697</v>
       </c>
       <c r="AJ15" s="3">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="22"/>
         <v>67.779026848681781</v>
       </c>
       <c r="AK15" s="3">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="22"/>
         <v>78.096420807947709</v>
       </c>
       <c r="AL15" s="3">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="22"/>
         <v>78.677556922972997</v>
       </c>
       <c r="AM15" s="3">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="22"/>
         <v>83.86770382235413</v>
       </c>
       <c r="AN15" s="3">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="22"/>
         <v>76.255670822224417</v>
       </c>
       <c r="AO15" s="3">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="22"/>
         <v>79.820490064301353</v>
       </c>
       <c r="AP15" s="3">
-        <f>INDEX($F:$R,MATCH($AA15,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="22"/>
         <v>84.733686701843226</v>
       </c>
       <c r="BN15" s="2">
-        <f t="shared" si="9"/>
-        <v>14</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="BO15" s="7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="BP15" s="2">
         <f t="shared" si="0"/>
-        <v>-0.62737575575544446</v>
+        <v>3.1499881678460735</v>
       </c>
       <c r="BQ15" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BR15" s="2">
-        <f t="shared" si="10"/>
-        <v>-0.2091252519184815</v>
+        <f t="shared" si="11"/>
+        <v>1.5749940839230367</v>
       </c>
       <c r="BS15" s="2">
-        <f t="shared" si="11"/>
-        <v>13</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="BU15" s="8">
         <v>14</v>
@@ -19549,7 +19554,7 @@
         <v>Ally</v>
       </c>
       <c r="BW15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.63</v>
       </c>
       <c r="BX15" s="6">
@@ -19561,11 +19566,11 @@
         <v>-0.21</v>
       </c>
       <c r="BZ15" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CA15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -19577,11 +19582,11 @@
         <v>4</v>
       </c>
       <c r="C16" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="D16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -19591,7 +19596,7 @@
         <v>21</v>
       </c>
       <c r="G16" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Rohit-2015</v>
       </c>
       <c r="H16" s="7">
@@ -19635,7 +19640,7 @@
         <v>6.1538461538461533</v>
       </c>
       <c r="U16" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.47337278106508873</v>
       </c>
       <c r="V16" s="7">
@@ -19645,7 +19650,7 @@
         <v>7</v>
       </c>
       <c r="X16" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AA16" s="3">
@@ -19668,71 +19673,71 @@
         <v>1.3767723680342439</v>
       </c>
       <c r="AF16" s="3">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="22"/>
         <v>78.878308006958889</v>
       </c>
       <c r="AG16" s="3">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="22"/>
         <v>60.84709964458844</v>
       </c>
       <c r="AH16" s="3">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="22"/>
         <v>65.379372204147813</v>
       </c>
       <c r="AI16" s="3">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="22"/>
         <v>68.775548560835801</v>
       </c>
       <c r="AJ16" s="3">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="22"/>
         <v>75.56881590613645</v>
       </c>
       <c r="AK16" s="3">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="22"/>
         <v>70.382756944067921</v>
       </c>
       <c r="AL16" s="3">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="22"/>
         <v>75.318896531445503</v>
       </c>
       <c r="AM16" s="3">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="22"/>
         <v>74.826064297827585</v>
       </c>
       <c r="AN16" s="3">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="22"/>
         <v>86.028114633274399</v>
       </c>
       <c r="AO16" s="3">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="22"/>
         <v>90.73400662979185</v>
       </c>
       <c r="AP16" s="3">
-        <f>INDEX($F:$R,MATCH($AA16,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="22"/>
         <v>87.461258475657345</v>
       </c>
       <c r="BN16" s="2">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f t="shared" si="10"/>
+        <v>7</v>
       </c>
       <c r="BO16" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BP16" s="2">
         <f t="shared" si="0"/>
-        <v>0.49043322153258229</v>
+        <v>1.0873252958591939</v>
       </c>
       <c r="BQ16" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BR16" s="2">
-        <f t="shared" si="10"/>
-        <v>0.49043322153258229</v>
+        <f t="shared" si="11"/>
+        <v>0.21746505917183878</v>
       </c>
       <c r="BS16" s="2">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="BU16" s="8">
         <v>15</v>
@@ -19742,7 +19747,7 @@
         <v>Jeff</v>
       </c>
       <c r="BW16" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-2.25</v>
       </c>
       <c r="BX16" s="6">
@@ -19754,11 +19759,11 @@
         <v>-0.45</v>
       </c>
       <c r="BZ16" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CA16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -19770,11 +19775,11 @@
         <v>5</v>
       </c>
       <c r="C17" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="D17" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>25</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -19784,7 +19789,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Galit-2015</v>
       </c>
       <c r="H17" s="7">
@@ -19821,14 +19826,14 @@
         <v>79.575397783825238</v>
       </c>
       <c r="S17" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.47823114996083971</v>
       </c>
       <c r="T17" s="7">
         <v>8.3076923076923084</v>
       </c>
       <c r="U17" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.63905325443786987</v>
       </c>
       <c r="V17" s="7">
@@ -19838,7 +19843,7 @@
         <v>11</v>
       </c>
       <c r="X17" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AA17" s="3">
@@ -19861,71 +19866,71 @@
         <v>1.3312049523996756</v>
       </c>
       <c r="AF17" s="3">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="22"/>
         <v>103.04583573649609</v>
       </c>
       <c r="AG17" s="3">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="22"/>
         <v>84.74894553300274</v>
       </c>
       <c r="AH17" s="3">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="22"/>
         <v>96.286891223218717</v>
       </c>
       <c r="AI17" s="3">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="22"/>
         <v>85.084786390333448</v>
       </c>
       <c r="AJ17" s="3">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="22"/>
         <v>90.879936386885319</v>
       </c>
       <c r="AK17" s="3">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="22"/>
         <v>100.88770819645798</v>
       </c>
       <c r="AL17" s="3">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="22"/>
         <v>90.51083549752444</v>
       </c>
       <c r="AM17" s="3">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="22"/>
         <v>94.743572370059752</v>
       </c>
       <c r="AN17" s="3">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="22"/>
         <v>83.030883417075074</v>
       </c>
       <c r="AO17" s="3">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="22"/>
         <v>89.45096070040654</v>
       </c>
       <c r="AP17" s="3">
-        <f>INDEX($F:$R,MATCH($AA17,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="22"/>
         <v>88.843689938269961</v>
       </c>
       <c r="BN17" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
+        <f t="shared" si="10"/>
+        <v>16</v>
       </c>
       <c r="BO17" s="7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="BP17" s="2">
         <f t="shared" si="0"/>
-        <v>0.43112449246098622</v>
+        <v>-4.6779622407093271</v>
       </c>
       <c r="BQ17" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BR17" s="2">
-        <f t="shared" si="10"/>
-        <v>0.43112449246098622</v>
+        <f t="shared" si="11"/>
+        <v>-1.1694905601773318</v>
       </c>
       <c r="BS17" s="2">
-        <f t="shared" si="11"/>
-        <v>8</v>
+        <f t="shared" si="12"/>
+        <v>16</v>
       </c>
       <c r="BU17" s="8">
         <v>16</v>
@@ -19935,7 +19940,7 @@
         <v>Will</v>
       </c>
       <c r="BW17" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-4.68</v>
       </c>
       <c r="BX17" s="6">
@@ -19947,11 +19952,11 @@
         <v>-1.17</v>
       </c>
       <c r="BZ17" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CA17" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
     </row>
@@ -19963,11 +19968,11 @@
         <v>6</v>
       </c>
       <c r="C18" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="D18" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -19977,7 +19982,7 @@
         <v>36</v>
       </c>
       <c r="G18" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Charles-2015</v>
       </c>
       <c r="H18" s="7">
@@ -20014,14 +20019,14 @@
         <v>88.817246231360656</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.6550235805578595</v>
       </c>
       <c r="T18" s="7">
         <v>9</v>
       </c>
       <c r="U18" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="V18" s="7">
@@ -20031,14 +20036,14 @@
         <v>4</v>
       </c>
       <c r="X18" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AA18" s="3">
         <v>16</v>
       </c>
       <c r="AB18" s="4" t="str">
-        <f t="shared" ref="AB18:AB48" si="23">IF(INDEX($W:$W,MATCH($AA18,$D:$D,0),1)=1,"\/","")</f>
+        <f t="shared" ref="AB18:AB48" si="25">IF(INDEX($W:$W,MATCH($AA18,$D:$D,0),1)=1,"\/","")</f>
         <v/>
       </c>
       <c r="AC18" s="3" t="str">
@@ -20054,47 +20059,47 @@
         <v>1.3003958036854788</v>
       </c>
       <c r="AF18" s="3">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="22"/>
         <v>45.480838655882195</v>
       </c>
       <c r="AG18" s="3">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="22"/>
         <v>52.547608194650564</v>
       </c>
       <c r="AH18" s="3">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="22"/>
         <v>55.026873789809073</v>
       </c>
       <c r="AI18" s="3">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="22"/>
         <v>63.042125349853606</v>
       </c>
       <c r="AJ18" s="3">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="22"/>
         <v>71.090958052158285</v>
       </c>
       <c r="AK18" s="3">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="22"/>
         <v>66.831429178795958</v>
       </c>
       <c r="AL18" s="3">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="22"/>
         <v>77.994715210885957</v>
       </c>
       <c r="AM18" s="3">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="22"/>
         <v>78.463234308305019</v>
       </c>
       <c r="AN18" s="3">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="22"/>
         <v>77.417914143122516</v>
       </c>
       <c r="AO18" s="3">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="22"/>
         <v>87.277752303761474</v>
       </c>
       <c r="AP18" s="3">
-        <f>INDEX($F:$R,MATCH($AA18,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="22"/>
         <v>87.277752303761474</v>
       </c>
       <c r="BU18" s="8">
@@ -20105,7 +20110,7 @@
         <v>#N/A</v>
       </c>
       <c r="BW18" s="6" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="BX18" s="6" t="e">
@@ -20117,11 +20122,11 @@
         <v>#N/A</v>
       </c>
       <c r="BZ18" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CA18" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -20133,11 +20138,11 @@
         <v>7</v>
       </c>
       <c r="C19" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="D19" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -20147,7 +20152,7 @@
         <v>37</v>
       </c>
       <c r="G19" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Mili/Vinay-2015</v>
       </c>
       <c r="H19" s="7">
@@ -20184,14 +20189,14 @@
         <v>87.461258475657345</v>
       </c>
       <c r="S19" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.3767723680342439</v>
       </c>
       <c r="T19" s="7">
         <v>5.7692307692307701</v>
       </c>
       <c r="U19" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.44378698224852076</v>
       </c>
       <c r="V19" s="7">
@@ -20201,14 +20206,14 @@
         <v>5</v>
       </c>
       <c r="X19" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AA19" s="3">
         <v>17</v>
       </c>
       <c r="AB19" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC19" s="3" t="str">
@@ -20224,47 +20229,47 @@
         <v>1.1960456367309227</v>
       </c>
       <c r="AF19" s="3">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="22"/>
         <v>105.05708799823135</v>
       </c>
       <c r="AG19" s="3">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="22"/>
         <v>91.586349114063978</v>
       </c>
       <c r="AH19" s="3">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="22"/>
         <v>99.599497354109175</v>
       </c>
       <c r="AI19" s="3">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="22"/>
         <v>96.673420911520552</v>
       </c>
       <c r="AJ19" s="3">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="22"/>
         <v>86.537240201916163</v>
       </c>
       <c r="AK19" s="3">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="22"/>
         <v>73.729912883610396</v>
       </c>
       <c r="AL19" s="3">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="22"/>
         <v>67.742328898449458</v>
       </c>
       <c r="AM19" s="3">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="22"/>
         <v>76.256486471009424</v>
       </c>
       <c r="AN19" s="3">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="22"/>
         <v>82.344587684958611</v>
       </c>
       <c r="AO19" s="3">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="22"/>
         <v>84.451487140924286</v>
       </c>
       <c r="AP19" s="3">
-        <f>INDEX($F:$R,MATCH($AA19,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="22"/>
         <v>90.159563874519463</v>
       </c>
     </row>
@@ -20276,11 +20281,11 @@
         <v>8</v>
       </c>
       <c r="C20" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>35</v>
       </c>
       <c r="D20" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>29</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -20290,7 +20295,7 @@
         <v>31</v>
       </c>
       <c r="G20" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Jeff-2015</v>
       </c>
       <c r="H20" s="7">
@@ -20327,14 +20332,14 @@
         <v>65.718175031880293</v>
       </c>
       <c r="S20" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-0.17611160840013201</v>
       </c>
       <c r="T20" s="7">
         <v>5.6153846153846159</v>
       </c>
       <c r="U20" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.43195266272189353</v>
       </c>
       <c r="V20" s="7">
@@ -20344,14 +20349,14 @@
         <v>9</v>
       </c>
       <c r="X20" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AA20" s="3">
         <v>18</v>
       </c>
       <c r="AB20" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC20" s="3" t="str">
@@ -20367,47 +20372,47 @@
         <v>1.0219229146962459</v>
       </c>
       <c r="AF20" s="3">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="22"/>
         <v>67.268724955213614</v>
       </c>
       <c r="AG20" s="3">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="22"/>
         <v>72.09636564280062</v>
       </c>
       <c r="AH20" s="3">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="22"/>
         <v>81.905210624824022</v>
       </c>
       <c r="AI20" s="3">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="22"/>
         <v>83.066460177711349</v>
       </c>
       <c r="AJ20" s="3">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="22"/>
         <v>73.939745523335162</v>
       </c>
       <c r="AK20" s="3">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="22"/>
         <v>85.72856219455501</v>
       </c>
       <c r="AL20" s="3">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="22"/>
         <v>80.510971148524177</v>
       </c>
       <c r="AM20" s="3">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="22"/>
         <v>75.406888491056932</v>
       </c>
       <c r="AN20" s="3">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="22"/>
         <v>82.127602055420496</v>
       </c>
       <c r="AO20" s="3">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="22"/>
         <v>83.286824713923764</v>
       </c>
       <c r="AP20" s="3">
-        <f>INDEX($F:$R,MATCH($AA20,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="22"/>
         <v>83.286824713923764</v>
       </c>
     </row>
@@ -20419,11 +20424,11 @@
         <v>9</v>
       </c>
       <c r="C21" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>27</v>
       </c>
       <c r="D21" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>34</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -20433,7 +20438,7 @@
         <v>32</v>
       </c>
       <c r="G21" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Will-2015</v>
       </c>
       <c r="H21" s="7">
@@ -20470,14 +20475,14 @@
         <v>62.925551095767531</v>
       </c>
       <c r="S21" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-0.49948141450816574</v>
       </c>
       <c r="T21" s="7">
         <v>6.0769230769230784</v>
       </c>
       <c r="U21" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.46745562130177526</v>
       </c>
       <c r="V21" s="7">
@@ -20487,14 +20492,14 @@
         <v>10</v>
       </c>
       <c r="X21" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AA21" s="3">
         <v>19</v>
       </c>
       <c r="AB21" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC21" s="3" t="str">
@@ -20510,47 +20515,47 @@
         <v>1.0206632708815659</v>
       </c>
       <c r="AF21" s="3">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="22"/>
         <v>89.008280202803007</v>
       </c>
       <c r="AG21" s="3">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="22"/>
         <v>93.294946249476325</v>
       </c>
       <c r="AH21" s="3">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="22"/>
         <v>78.59977211760345</v>
       </c>
       <c r="AI21" s="3">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="22"/>
         <v>67.186433964027856</v>
       </c>
       <c r="AJ21" s="3">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="22"/>
         <v>75.830223249896903</v>
       </c>
       <c r="AK21" s="3">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="22"/>
         <v>80.742458689069807</v>
       </c>
       <c r="AL21" s="3">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="22"/>
         <v>88.343012826506651</v>
       </c>
       <c r="AM21" s="3">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="22"/>
         <v>88.819746929980084</v>
       </c>
       <c r="AN21" s="3">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="22"/>
         <v>84.367530077986274</v>
       </c>
       <c r="AO21" s="3">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="22"/>
         <v>95.786967514018315</v>
       </c>
       <c r="AP21" s="3">
-        <f>INDEX($F:$R,MATCH($AA21,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="22"/>
         <v>91.594250747750635</v>
       </c>
     </row>
@@ -20562,11 +20567,11 @@
         <v>10</v>
       </c>
       <c r="C22" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38</v>
       </c>
       <c r="D22" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>31</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -20576,7 +20581,7 @@
         <v>38</v>
       </c>
       <c r="G22" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>MattP-2015</v>
       </c>
       <c r="H22" s="7">
@@ -20613,14 +20618,14 @@
         <v>69.73495154243858</v>
       </c>
       <c r="S22" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-0.24530631408354286</v>
       </c>
       <c r="T22" s="7">
         <v>4.7692307692307701</v>
       </c>
       <c r="U22" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.36686390532544383</v>
       </c>
       <c r="V22" s="7">
@@ -20630,14 +20635,14 @@
         <v>12</v>
       </c>
       <c r="X22" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AA22" s="3">
         <v>20</v>
       </c>
       <c r="AB22" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC22" s="3" t="str">
@@ -20653,47 +20658,47 @@
         <v>0.94481008292727364</v>
       </c>
       <c r="AF22" s="3">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="22"/>
         <v>72.067611408199639</v>
       </c>
       <c r="AG22" s="3">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="22"/>
         <v>76.834902652357115</v>
       </c>
       <c r="AH22" s="3">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="22"/>
         <v>87.167566733683429</v>
       </c>
       <c r="AI22" s="3">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="22"/>
         <v>85.037643039457947</v>
       </c>
       <c r="AJ22" s="3">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="22"/>
         <v>87.567394790978867</v>
       </c>
       <c r="AK22" s="3">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="22"/>
         <v>94.20954159282519</v>
       </c>
       <c r="AL22" s="3">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="22"/>
         <v>89.569033368141291</v>
       </c>
       <c r="AM22" s="3">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="22"/>
         <v>95.623339468179068</v>
       </c>
       <c r="AN22" s="3">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="22"/>
         <v>81.289039034222625</v>
       </c>
       <c r="AO22" s="3">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="22"/>
         <v>86.106871880484761</v>
       </c>
       <c r="AP22" s="3">
-        <f>INDEX($F:$R,MATCH($AA22,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="22"/>
         <v>88.455403734703609</v>
       </c>
     </row>
@@ -20705,11 +20710,11 @@
         <v>11</v>
       </c>
       <c r="C23" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="D23" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -20719,7 +20724,7 @@
         <v>39</v>
       </c>
       <c r="G23" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Joe-2015</v>
       </c>
       <c r="H23" s="7">
@@ -20756,14 +20761,14 @@
         <v>62.125168358056015</v>
       </c>
       <c r="S23" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-0.29133424751426912</v>
       </c>
       <c r="T23" s="7">
         <v>6.3076923076923084</v>
       </c>
       <c r="U23" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.48520710059171601</v>
       </c>
       <c r="V23" s="7">
@@ -20773,14 +20778,14 @@
         <v>8</v>
       </c>
       <c r="X23" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AA23" s="3">
         <v>21</v>
       </c>
       <c r="AB23" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC23" s="3" t="str">
@@ -20796,47 +20801,47 @@
         <v>0.55904118319066853</v>
       </c>
       <c r="AF23" s="3">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" ref="AF23:AP32" si="26">INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AF$2,2))</f>
         <v>75.924015510311591</v>
       </c>
       <c r="AG23" s="3">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="26"/>
         <v>82.494639617844058</v>
       </c>
       <c r="AH23" s="3">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="26"/>
         <v>88.115459611858569</v>
       </c>
       <c r="AI23" s="3">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="26"/>
         <v>93.370857248637392</v>
       </c>
       <c r="AJ23" s="3">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="26"/>
         <v>77.90594604287287</v>
       </c>
       <c r="AK23" s="3">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="26"/>
         <v>86.584728498601478</v>
       </c>
       <c r="AL23" s="3">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="26"/>
         <v>89.930273775492864</v>
       </c>
       <c r="AM23" s="3">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="26"/>
         <v>88.285858177257907</v>
       </c>
       <c r="AN23" s="3">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="26"/>
         <v>85.1371038596034</v>
       </c>
       <c r="AO23" s="3">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="26"/>
         <v>80.687973777060023</v>
       </c>
       <c r="AP23" s="3">
-        <f>INDEX($F:$R,MATCH($AA23,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="26"/>
         <v>85.3755746604009</v>
       </c>
     </row>
@@ -20848,11 +20853,11 @@
         <v>12</v>
       </c>
       <c r="C24" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33</v>
       </c>
       <c r="D24" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -20862,7 +20867,7 @@
         <v>27</v>
       </c>
       <c r="G24" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Tony-2015</v>
       </c>
       <c r="H24" s="7">
@@ -20899,14 +20904,14 @@
         <v>45.839290597591798</v>
       </c>
       <c r="S24" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-1.6813045998357476</v>
       </c>
       <c r="T24" s="7">
         <v>5.7692307692307692</v>
       </c>
       <c r="U24" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.4437869822485207</v>
       </c>
       <c r="V24" s="7">
@@ -20916,14 +20921,14 @@
         <v>13</v>
       </c>
       <c r="X24" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AA24" s="3">
         <v>22</v>
       </c>
       <c r="AB24" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC24" s="3" t="str">
@@ -20939,47 +20944,47 @@
         <v>0.53747973769366109</v>
       </c>
       <c r="AF24" s="3">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="26"/>
         <v>84.251451445455629</v>
       </c>
       <c r="AG24" s="3">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="26"/>
         <v>89.237509783867566</v>
       </c>
       <c r="AH24" s="3">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="26"/>
         <v>85.140775974329671</v>
       </c>
       <c r="AI24" s="3">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="26"/>
         <v>71.844532062210334</v>
       </c>
       <c r="AJ24" s="3">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="26"/>
         <v>81.532029643026434</v>
       </c>
       <c r="AK24" s="3">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="26"/>
         <v>74.696507291768299</v>
       </c>
       <c r="AL24" s="3">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="26"/>
         <v>42.065996616910283</v>
       </c>
       <c r="AM24" s="3">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="26"/>
         <v>51.452939475731775</v>
       </c>
       <c r="AN24" s="3">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="26"/>
         <v>71.609735933644998</v>
       </c>
       <c r="AO24" s="3">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="26"/>
         <v>80.667554742777895</v>
       </c>
       <c r="AP24" s="3">
-        <f>INDEX($F:$R,MATCH($AA24,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="26"/>
         <v>80.667554742777895</v>
       </c>
     </row>
@@ -20991,11 +20996,11 @@
         <v>13</v>
       </c>
       <c r="C25" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
       <c r="D25" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -21005,7 +21010,7 @@
         <v>25</v>
       </c>
       <c r="G25" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Caryn-2015</v>
       </c>
       <c r="H25" s="7">
@@ -21042,14 +21047,14 @@
         <v>60.443296218208744</v>
       </c>
       <c r="S25" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-0.22721006571792801</v>
       </c>
       <c r="T25" s="7">
         <v>3.1538461538461533</v>
       </c>
       <c r="U25" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.24260355029585795</v>
       </c>
       <c r="V25" s="7">
@@ -21059,14 +21064,14 @@
         <v>6</v>
       </c>
       <c r="X25" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AA25" s="3">
         <v>23</v>
       </c>
       <c r="AB25" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC25" s="3" t="str">
@@ -21082,47 +21087,47 @@
         <v>0.50257154822400874</v>
       </c>
       <c r="AF25" s="3">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="26"/>
         <v>64.894159671707385</v>
       </c>
       <c r="AG25" s="3">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="26"/>
         <v>84.281668536018628</v>
       </c>
       <c r="AH25" s="3">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="26"/>
         <v>69.031398832222294</v>
       </c>
       <c r="AI25" s="3">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="26"/>
         <v>76.886825194829186</v>
       </c>
       <c r="AJ25" s="3">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="26"/>
         <v>90.684713446751601</v>
       </c>
       <c r="AK25" s="3">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="26"/>
         <v>80.170970186588065</v>
       </c>
       <c r="AL25" s="3">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="26"/>
         <v>90.031838325742015</v>
       </c>
       <c r="AM25" s="3">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="26"/>
         <v>73.399765652084767</v>
       </c>
       <c r="AN25" s="3">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="26"/>
         <v>77.268782257590487</v>
       </c>
       <c r="AO25" s="3">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="26"/>
         <v>82.593949967747506</v>
       </c>
       <c r="AP25" s="3">
-        <f>INDEX($F:$R,MATCH($AA25,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="26"/>
         <v>77.071504494211467</v>
       </c>
     </row>
@@ -21134,11 +21139,11 @@
         <v>14</v>
       </c>
       <c r="C26" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37</v>
       </c>
       <c r="D26" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>42</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -21148,7 +21153,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Ally-2015</v>
       </c>
       <c r="H26" s="7">
@@ -21192,7 +21197,7 @@
         <v>4.9230769230769234</v>
       </c>
       <c r="U26" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.37869822485207105</v>
       </c>
       <c r="V26" s="7">
@@ -21209,7 +21214,7 @@
         <v>24</v>
       </c>
       <c r="AB26" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC26" s="3" t="str">
@@ -21225,47 +21230,47 @@
         <v>0.49043322153258229</v>
       </c>
       <c r="AF26" s="3">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="26"/>
         <v>39.719259479749425</v>
       </c>
       <c r="AG26" s="3">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="26"/>
         <v>60.37109632012222</v>
       </c>
       <c r="AH26" s="3">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="26"/>
         <v>67.311053961314883</v>
       </c>
       <c r="AI26" s="3">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="26"/>
         <v>72.913567509173959</v>
       </c>
       <c r="AJ26" s="3">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="26"/>
         <v>82.168731571951014</v>
       </c>
       <c r="AK26" s="3">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="26"/>
         <v>84.498751571610129</v>
       </c>
       <c r="AL26" s="3">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="26"/>
         <v>82.559434595804476</v>
       </c>
       <c r="AM26" s="3">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="26"/>
         <v>90.719866368388466</v>
       </c>
       <c r="AN26" s="3">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="26"/>
         <v>71.698770707433937</v>
       </c>
       <c r="AO26" s="3">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="26"/>
         <v>87.994750368120208</v>
       </c>
       <c r="AP26" s="3">
-        <f>INDEX($F:$R,MATCH($AA26,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="26"/>
         <v>88.840292637018194</v>
       </c>
     </row>
@@ -21277,11 +21282,11 @@
         <v>1</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="E27" s="9" t="s">
@@ -21291,7 +21296,7 @@
         <v>21</v>
       </c>
       <c r="G27" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Rohit-2016</v>
       </c>
       <c r="H27" s="9">
@@ -21335,7 +21340,7 @@
         <v>9.1818181818181799</v>
       </c>
       <c r="U27" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.70629370629370614</v>
       </c>
       <c r="V27" s="9">
@@ -21356,7 +21361,7 @@
         <v>25</v>
       </c>
       <c r="AB27" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC27" s="3" t="str">
@@ -21372,47 +21377,47 @@
         <v>0.47823114996083971</v>
       </c>
       <c r="AF27" s="3">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="26"/>
         <v>84.516465874821847</v>
       </c>
       <c r="AG27" s="3">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="26"/>
         <v>84.882454536962229</v>
       </c>
       <c r="AH27" s="3">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="26"/>
         <v>86.064760061130301</v>
       </c>
       <c r="AI27" s="3">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="26"/>
         <v>78.75210115621222</v>
       </c>
       <c r="AJ27" s="3">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="26"/>
         <v>66.956497040088195</v>
       </c>
       <c r="AK27" s="3">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="26"/>
         <v>66.437462920952214</v>
       </c>
       <c r="AL27" s="3">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="26"/>
         <v>78.228638843867103</v>
       </c>
       <c r="AM27" s="3">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="26"/>
         <v>63.389129988530456</v>
       </c>
       <c r="AN27" s="3">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="26"/>
         <v>59.173194556058334</v>
       </c>
       <c r="AO27" s="3">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="26"/>
         <v>72.865296900426202</v>
       </c>
       <c r="AP27" s="3">
-        <f>INDEX($F:$R,MATCH($AA27,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="26"/>
         <v>79.575397783825238</v>
       </c>
     </row>
@@ -21424,11 +21429,11 @@
         <v>2</v>
       </c>
       <c r="C28" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="D28" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="E28" s="9" t="s">
@@ -21438,7 +21443,7 @@
         <v>34</v>
       </c>
       <c r="G28" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Sherwin-2016</v>
       </c>
       <c r="H28" s="9">
@@ -21475,14 +21480,14 @@
         <v>91.505458137399131</v>
       </c>
       <c r="S28" s="9">
-        <f t="shared" ref="S28:S38" si="24">(AVERAGE(H28:R28)-AVERAGE($H$27:$R$38))/(_xlfn.STDEV.P($H$27:$R$38)*_xlfn.STDEV.P(H28:R28))+(R28-AVERAGE($R$27:$R$38))/_xlfn.STDEV.P($R$27:$R$38)+(MAX($W$27:$W$38)-W28)/MAX($W$27:$W$38)</f>
+        <f t="shared" ref="S28:S38" si="27">(AVERAGE(H28:R28)-AVERAGE($H$27:$R$38))/(_xlfn.STDEV.P($H$27:$R$38)*_xlfn.STDEV.P(H28:R28))+(R28-AVERAGE($R$27:$R$38))/_xlfn.STDEV.P($R$27:$R$38)+(MAX($W$27:$W$38)-W28)/MAX($W$27:$W$38)</f>
         <v>1.577080746272159</v>
       </c>
       <c r="T28" s="9">
         <v>8.3636363636363633</v>
       </c>
       <c r="U28" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.64335664335664333</v>
       </c>
       <c r="V28" s="9">
@@ -21492,14 +21497,14 @@
         <v>5</v>
       </c>
       <c r="X28" s="9" t="str">
-        <f t="shared" ref="X28:X38" si="25">IF(W28=MAX($W$27:$W$38),-1,IF(W28=1,1,""))</f>
+        <f t="shared" ref="X28:X38" si="28">IF(W28=MAX($W$27:$W$38),-1,IF(W28=1,1,""))</f>
         <v/>
       </c>
       <c r="AA28" s="3">
         <v>26</v>
       </c>
       <c r="AB28" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC28" s="3" t="str">
@@ -21515,47 +21520,47 @@
         <v>0.43112449246098622</v>
       </c>
       <c r="AF28" s="3">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="26"/>
         <v>99.341015645451961</v>
       </c>
       <c r="AG28" s="3">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="26"/>
         <v>86.561931443849318</v>
       </c>
       <c r="AH28" s="3">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="26"/>
         <v>93.884102960667917</v>
       </c>
       <c r="AI28" s="3">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="26"/>
         <v>94.80140044530512</v>
       </c>
       <c r="AJ28" s="3">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="26"/>
         <v>75.071780416606259</v>
       </c>
       <c r="AK28" s="3">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="26"/>
         <v>80.908378121518837</v>
       </c>
       <c r="AL28" s="3">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="26"/>
         <v>83.27006219726087</v>
       </c>
       <c r="AM28" s="3">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="26"/>
         <v>77.574908879153526</v>
       </c>
       <c r="AN28" s="3">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="26"/>
         <v>81.369718373061914</v>
       </c>
       <c r="AO28" s="3">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="26"/>
         <v>82.738647110983152</v>
       </c>
       <c r="AP28" s="3">
-        <f>INDEX($F:$R,MATCH($AA28,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="26"/>
         <v>82.738647110983152</v>
       </c>
     </row>
@@ -21567,11 +21572,11 @@
         <v>3</v>
       </c>
       <c r="C29" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="D29" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -21581,7 +21586,7 @@
         <v>38</v>
       </c>
       <c r="G29" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>MattP-2016</v>
       </c>
       <c r="H29" s="9">
@@ -21618,14 +21623,14 @@
         <v>90.637548236234466</v>
       </c>
       <c r="S29" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.6708186390339921</v>
       </c>
       <c r="T29" s="9">
         <v>9</v>
       </c>
       <c r="U29" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="V29" s="9">
@@ -21635,14 +21640,14 @@
         <v>4</v>
       </c>
       <c r="X29" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AA29" s="3">
         <v>27</v>
       </c>
       <c r="AB29" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC29" s="3" t="str">
@@ -21658,47 +21663,47 @@
         <v>0.36844061309093479</v>
       </c>
       <c r="AF29" s="3">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="26"/>
         <v>88.548344803285204</v>
       </c>
       <c r="AG29" s="3">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="26"/>
         <v>91.534359509704544</v>
       </c>
       <c r="AH29" s="3">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="26"/>
         <v>96.14430859425687</v>
       </c>
       <c r="AI29" s="3">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="26"/>
         <v>103.76468004512624</v>
       </c>
       <c r="AJ29" s="3">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="26"/>
         <v>84.684136418311027</v>
       </c>
       <c r="AK29" s="3">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="26"/>
         <v>60.629116594308016</v>
       </c>
       <c r="AL29" s="3">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="26"/>
         <v>73.003296771528966</v>
       </c>
       <c r="AM29" s="3">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="26"/>
         <v>69.405665386096089</v>
       </c>
       <c r="AN29" s="3">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="26"/>
         <v>76.819969407819102</v>
       </c>
       <c r="AO29" s="3">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="26"/>
         <v>75.855178443536346</v>
       </c>
       <c r="AP29" s="3">
-        <f>INDEX($F:$R,MATCH($AA29,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="26"/>
         <v>82.369211492149375</v>
       </c>
     </row>
@@ -21710,11 +21715,11 @@
         <v>4</v>
       </c>
       <c r="C30" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="D30" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="E30" s="9" t="s">
@@ -21724,7 +21729,7 @@
         <v>27</v>
       </c>
       <c r="G30" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Tony-2016</v>
       </c>
       <c r="H30" s="9">
@@ -21761,14 +21766,14 @@
         <v>90.159563874519463</v>
       </c>
       <c r="S30" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.1960456367309227</v>
       </c>
       <c r="T30" s="9">
         <v>6.8181818181818175</v>
       </c>
       <c r="U30" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.52447552447552437</v>
       </c>
       <c r="V30" s="9">
@@ -21778,14 +21783,14 @@
         <v>8</v>
       </c>
       <c r="X30" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AA30" s="3">
         <v>28</v>
       </c>
       <c r="AB30" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC30" s="3" t="str">
@@ -21801,47 +21806,47 @@
         <v>-0.13731368236251484</v>
       </c>
       <c r="AF30" s="3">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="26"/>
         <v>96.822323866328105</v>
       </c>
       <c r="AG30" s="3">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="26"/>
         <v>70.529112918712741</v>
       </c>
       <c r="AH30" s="3">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="26"/>
         <v>82.270442217735166</v>
       </c>
       <c r="AI30" s="3">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="26"/>
         <v>92.171491524358132</v>
       </c>
       <c r="AJ30" s="3">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="26"/>
         <v>73.886342912824347</v>
       </c>
       <c r="AK30" s="3">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="26"/>
         <v>81.655874236137393</v>
       </c>
       <c r="AL30" s="3">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="26"/>
         <v>84.564950021570453</v>
       </c>
       <c r="AM30" s="3">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="26"/>
         <v>70.361868742438503</v>
       </c>
       <c r="AN30" s="3">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="26"/>
         <v>75.724651889825651</v>
       </c>
       <c r="AO30" s="3">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="26"/>
         <v>75.845837810213993</v>
       </c>
       <c r="AP30" s="3">
-        <f>INDEX($F:$R,MATCH($AA30,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="26"/>
         <v>75.845837810213993</v>
       </c>
     </row>
@@ -21853,11 +21858,11 @@
         <v>5</v>
       </c>
       <c r="C31" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="D31" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E31" s="9" t="s">
@@ -21867,7 +21872,7 @@
         <v>25</v>
       </c>
       <c r="G31" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Caryn-2016</v>
       </c>
       <c r="H31" s="9">
@@ -21904,14 +21909,14 @@
         <v>89.018900439733244</v>
       </c>
       <c r="S31" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.6354335235044672</v>
       </c>
       <c r="T31" s="9">
         <v>7.545454545454545</v>
       </c>
       <c r="U31" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.58041958041958042</v>
       </c>
       <c r="V31" s="9">
@@ -21921,14 +21926,14 @@
         <v>1</v>
       </c>
       <c r="X31" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AA31" s="3">
         <v>29</v>
       </c>
       <c r="AB31" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC31" s="3" t="str">
@@ -21944,47 +21949,47 @@
         <v>-0.17611160840013201</v>
       </c>
       <c r="AF31" s="3">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="26"/>
         <v>73.315740528415617</v>
       </c>
       <c r="AG31" s="3">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="26"/>
         <v>76.803515487789127</v>
       </c>
       <c r="AH31" s="3">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="26"/>
         <v>88.612487233196589</v>
       </c>
       <c r="AI31" s="3">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="26"/>
         <v>83.714265162522622</v>
       </c>
       <c r="AJ31" s="3">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="26"/>
         <v>94.173098361299822</v>
       </c>
       <c r="AK31" s="3">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="26"/>
         <v>84.567406073747094</v>
       </c>
       <c r="AL31" s="3">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="26"/>
         <v>71.985656001533414</v>
       </c>
       <c r="AM31" s="3">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="26"/>
         <v>67.228322743757289</v>
       </c>
       <c r="AN31" s="3">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="26"/>
         <v>68.828109891853302</v>
       </c>
       <c r="AO31" s="3">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="26"/>
         <v>72.214017764586103</v>
       </c>
       <c r="AP31" s="3">
-        <f>INDEX($F:$R,MATCH($AA31,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="26"/>
         <v>65.718175031880293</v>
       </c>
     </row>
@@ -21996,11 +22001,11 @@
         <v>6</v>
       </c>
       <c r="C32" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="D32" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="E32" s="9" t="s">
@@ -22010,7 +22015,7 @@
         <v>28</v>
       </c>
       <c r="G32" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Pranay-2016</v>
       </c>
       <c r="H32" s="9">
@@ -22047,14 +22052,14 @@
         <v>88.843689938269961</v>
       </c>
       <c r="S32" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.3312049523996756</v>
       </c>
       <c r="T32" s="9">
         <v>7.9090909090909092</v>
       </c>
       <c r="U32" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.60839160839160844</v>
       </c>
       <c r="V32" s="9">
@@ -22064,14 +22069,14 @@
         <v>6</v>
       </c>
       <c r="X32" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AA32" s="3">
         <v>30</v>
       </c>
       <c r="AB32" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC32" s="3" t="str">
@@ -22087,47 +22092,47 @@
         <v>-0.22721006571792801</v>
       </c>
       <c r="AF32" s="3">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="26"/>
         <v>89.306261001156599</v>
       </c>
       <c r="AG32" s="3">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="26"/>
         <v>89.530260384729488</v>
       </c>
       <c r="AH32" s="3">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="26"/>
         <v>95.208885653999587</v>
       </c>
       <c r="AI32" s="3">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="26"/>
         <v>93.431280144257357</v>
       </c>
       <c r="AJ32" s="3">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="26"/>
         <v>95.385376923460825</v>
       </c>
       <c r="AK32" s="3">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="26"/>
         <v>88.964689800711895</v>
       </c>
       <c r="AL32" s="3">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="26"/>
         <v>93.161471498305232</v>
       </c>
       <c r="AM32" s="3">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="26"/>
         <v>81.033692870809659</v>
       </c>
       <c r="AN32" s="3">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="26"/>
         <v>78.776325037892661</v>
       </c>
       <c r="AO32" s="3">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="26"/>
         <v>72.108011250784259</v>
       </c>
       <c r="AP32" s="3">
-        <f>INDEX($F:$R,MATCH($AA32,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="26"/>
         <v>60.443296218208744</v>
       </c>
     </row>
@@ -22139,11 +22144,11 @@
         <v>7</v>
       </c>
       <c r="C33" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
       <c r="D33" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>27</v>
       </c>
       <c r="E33" s="9" t="s">
@@ -22153,7 +22158,7 @@
         <v>37</v>
       </c>
       <c r="G33" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Mili/Vinay-2016</v>
       </c>
       <c r="H33" s="9">
@@ -22190,14 +22195,14 @@
         <v>82.369211492149375</v>
       </c>
       <c r="S33" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.36844061309093479</v>
       </c>
       <c r="T33" s="9">
         <v>6.8181818181818183</v>
       </c>
       <c r="U33" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.52447552447552448</v>
       </c>
       <c r="V33" s="9">
@@ -22207,14 +22212,14 @@
         <v>10</v>
       </c>
       <c r="X33" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AA33" s="3">
         <v>31</v>
       </c>
       <c r="AB33" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC33" s="3" t="str">
@@ -22230,47 +22235,47 @@
         <v>-0.24530631408354286</v>
       </c>
       <c r="AF33" s="3">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" ref="AF33:AP42" si="29">INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AF$2,2))</f>
         <v>46.352370559099327</v>
       </c>
       <c r="AG33" s="3">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="29"/>
         <v>50.794055793501371</v>
       </c>
       <c r="AH33" s="3">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="29"/>
         <v>65.486661120805721</v>
       </c>
       <c r="AI33" s="3">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="29"/>
         <v>63.11520079399132</v>
       </c>
       <c r="AJ33" s="3">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="29"/>
         <v>70.646725181082644</v>
       </c>
       <c r="AK33" s="3">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="29"/>
         <v>65.447746884147435</v>
       </c>
       <c r="AL33" s="3">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="29"/>
         <v>75.078917988585602</v>
       </c>
       <c r="AM33" s="3">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="29"/>
         <v>69.73170088478949</v>
       </c>
       <c r="AN33" s="3">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="29"/>
         <v>65.674892757664097</v>
       </c>
       <c r="AO33" s="3">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="29"/>
         <v>61.896987613452595</v>
       </c>
       <c r="AP33" s="3">
-        <f>INDEX($F:$R,MATCH($AA33,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="29"/>
         <v>69.73495154243858</v>
       </c>
     </row>
@@ -22282,11 +22287,11 @@
         <v>8</v>
       </c>
       <c r="C34" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
       <c r="D34" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="E34" s="9" t="s">
@@ -22296,7 +22301,7 @@
         <v>26</v>
       </c>
       <c r="G34" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Akshay-2016</v>
       </c>
       <c r="H34" s="9">
@@ -22333,14 +22338,14 @@
         <v>77.071504494211467</v>
       </c>
       <c r="S34" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.50257154822400874</v>
       </c>
       <c r="T34" s="9">
         <v>6.6363636363636376</v>
       </c>
       <c r="U34" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.51048951048951063</v>
       </c>
       <c r="V34" s="9">
@@ -22350,14 +22355,14 @@
         <v>3</v>
       </c>
       <c r="X34" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AA34" s="3">
         <v>32</v>
       </c>
       <c r="AB34" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC34" s="3" t="str">
@@ -22373,47 +22378,47 @@
         <v>-0.29133424751426912</v>
       </c>
       <c r="AF34" s="3">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="29"/>
         <v>99.986104585204629</v>
       </c>
       <c r="AG34" s="3">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="29"/>
         <v>94.342587961518973</v>
       </c>
       <c r="AH34" s="3">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="29"/>
         <v>99.920365920869017</v>
       </c>
       <c r="AI34" s="3">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="29"/>
         <v>107.34716301405658</v>
       </c>
       <c r="AJ34" s="3">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="29"/>
         <v>96.138690477166108</v>
       </c>
       <c r="AK34" s="3">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="29"/>
         <v>93.476366674736781</v>
       </c>
       <c r="AL34" s="3">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="29"/>
         <v>81.179119998890485</v>
       </c>
       <c r="AM34" s="3">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="29"/>
         <v>64.975744933665936</v>
       </c>
       <c r="AN34" s="3">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="29"/>
         <v>55.223007097386684</v>
       </c>
       <c r="AO34" s="3">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="29"/>
         <v>73.001780824743705</v>
       </c>
       <c r="AP34" s="3">
-        <f>INDEX($F:$R,MATCH($AA34,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="29"/>
         <v>62.125168358056015</v>
       </c>
     </row>
@@ -22425,11 +22430,11 @@
         <v>9</v>
       </c>
       <c r="C35" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43</v>
       </c>
       <c r="D35" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>39</v>
       </c>
       <c r="E35" s="9" t="s">
@@ -22439,7 +22444,7 @@
         <v>22</v>
       </c>
       <c r="G35" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Galit-2016</v>
       </c>
       <c r="H35" s="9">
@@ -22476,14 +22481,14 @@
         <v>66.530454147995641</v>
       </c>
       <c r="S35" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-0.75525672788096299</v>
       </c>
       <c r="T35" s="9">
         <v>4.0909090909090908</v>
       </c>
       <c r="U35" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.31468531468531469</v>
       </c>
       <c r="V35" s="9">
@@ -22493,14 +22498,14 @@
         <v>7</v>
       </c>
       <c r="X35" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AA35" s="3">
         <v>33</v>
       </c>
       <c r="AB35" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC35" s="3" t="str">
@@ -22516,47 +22521,47 @@
         <v>-0.45932736220250275</v>
       </c>
       <c r="AF35" s="3">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="29"/>
         <v>92.574933889359485</v>
       </c>
       <c r="AG35" s="3">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="29"/>
         <v>96.667627208832172</v>
       </c>
       <c r="AH35" s="3">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="29"/>
         <v>85.488031710798353</v>
       </c>
       <c r="AI35" s="3">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="29"/>
         <v>79.086466230062001</v>
       </c>
       <c r="AJ35" s="3">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="29"/>
         <v>80.221493771524493</v>
       </c>
       <c r="AK35" s="3">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="29"/>
         <v>90.205804607603483</v>
       </c>
       <c r="AL35" s="3">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="29"/>
         <v>86.0428444592944</v>
       </c>
       <c r="AM35" s="3">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="29"/>
         <v>88.133769404205822</v>
       </c>
       <c r="AN35" s="3">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="29"/>
         <v>88.458370593981741</v>
       </c>
       <c r="AO35" s="3">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="29"/>
         <v>70.892195072592045</v>
       </c>
       <c r="AP35" s="3">
-        <f>INDEX($F:$R,MATCH($AA35,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="29"/>
         <v>74.056833647840932</v>
       </c>
     </row>
@@ -22568,11 +22573,11 @@
         <v>10</v>
       </c>
       <c r="C36" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>44</v>
       </c>
       <c r="D36" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="E36" s="9" t="s">
@@ -22582,7 +22587,7 @@
         <v>31</v>
       </c>
       <c r="G36" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Jeff-2016</v>
       </c>
       <c r="H36" s="9">
@@ -22619,14 +22624,14 @@
         <v>65.909173086044291</v>
       </c>
       <c r="S36" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-1.1502039822164289</v>
       </c>
       <c r="T36" s="9">
         <v>4.0909090909090899</v>
       </c>
       <c r="U36" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.31468531468531463</v>
       </c>
       <c r="V36" s="9">
@@ -22636,14 +22641,14 @@
         <v>11</v>
       </c>
       <c r="X36" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AA36" s="3">
         <v>34</v>
       </c>
       <c r="AB36" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC36" s="3" t="str">
@@ -22659,47 +22664,47 @@
         <v>-0.49948141450816574</v>
       </c>
       <c r="AF36" s="3">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="29"/>
         <v>49.145104101095853</v>
       </c>
       <c r="AG36" s="3">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="29"/>
         <v>60.537949783379858</v>
       </c>
       <c r="AH36" s="3">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="29"/>
         <v>45.468534031230767</v>
       </c>
       <c r="AI36" s="3">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="29"/>
         <v>59.78737792320338</v>
       </c>
       <c r="AJ36" s="3">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="29"/>
         <v>63.512300343256477</v>
       </c>
       <c r="AK36" s="3">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="29"/>
         <v>70.512627150068852</v>
       </c>
       <c r="AL36" s="3">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="29"/>
         <v>77.71926764514744</v>
       </c>
       <c r="AM36" s="3">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="29"/>
         <v>76.749262147435019</v>
       </c>
       <c r="AN36" s="3">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="29"/>
         <v>51.211771405344052</v>
       </c>
       <c r="AO36" s="3">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="29"/>
         <v>55.651412031369659</v>
       </c>
       <c r="AP36" s="3">
-        <f>INDEX($F:$R,MATCH($AA36,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="29"/>
         <v>62.925551095767531</v>
       </c>
     </row>
@@ -22711,13 +22716,13 @@
         <v>11</v>
       </c>
       <c r="C37" s="10">
-        <f t="shared" si="15"/>
-        <v>41</v>
-      </c>
-      <c r="D37" s="10">
         <f t="shared" si="16"/>
         <v>41</v>
       </c>
+      <c r="D37" s="10">
+        <f t="shared" si="17"/>
+        <v>41</v>
+      </c>
       <c r="E37" s="9" t="s">
         <v>41</v>
       </c>
@@ -22725,7 +22730,7 @@
         <v>36</v>
       </c>
       <c r="G37" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Charles-2016</v>
       </c>
       <c r="H37" s="9">
@@ -22762,14 +22767,14 @@
         <v>63.43127649513491</v>
       </c>
       <c r="S37" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-1.2057093814899333</v>
       </c>
       <c r="T37" s="9">
         <v>4.3636363636363633</v>
       </c>
       <c r="U37" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.33566433566433562</v>
       </c>
       <c r="V37" s="9">
@@ -22779,14 +22784,14 @@
         <v>9</v>
       </c>
       <c r="X37" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AA37" s="3">
         <v>35</v>
       </c>
       <c r="AB37" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC37" s="3" t="str">
@@ -22802,47 +22807,47 @@
         <v>-0.61575020202332409</v>
       </c>
       <c r="AF37" s="3">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="29"/>
         <v>98.29688961992133</v>
       </c>
       <c r="AG37" s="3">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="29"/>
         <v>95.545835821780315</v>
       </c>
       <c r="AH37" s="3">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="29"/>
         <v>93.423875844542437</v>
       </c>
       <c r="AI37" s="3">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="29"/>
         <v>77.702629548358729</v>
       </c>
       <c r="AJ37" s="3">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="29"/>
         <v>74.866235534338728</v>
       </c>
       <c r="AK37" s="3">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="29"/>
         <v>68.518236565983372</v>
       </c>
       <c r="AL37" s="3">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="29"/>
         <v>54.955082022234862</v>
       </c>
       <c r="AM37" s="3">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="29"/>
         <v>56.440759883598247</v>
       </c>
       <c r="AN37" s="3">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="29"/>
         <v>70.678422125512341</v>
       </c>
       <c r="AO37" s="3">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="29"/>
         <v>75.237225289455637</v>
       </c>
       <c r="AP37" s="3">
-        <f>INDEX($F:$R,MATCH($AA37,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="29"/>
         <v>75.237225289455637</v>
       </c>
     </row>
@@ -22854,13 +22859,13 @@
         <v>12</v>
       </c>
       <c r="C38" s="10">
-        <f t="shared" si="15"/>
-        <v>46</v>
-      </c>
-      <c r="D38" s="10">
         <f t="shared" si="16"/>
         <v>46</v>
       </c>
+      <c r="D38" s="10">
+        <f t="shared" si="17"/>
+        <v>46</v>
+      </c>
       <c r="E38" s="9" t="s">
         <v>43</v>
       </c>
@@ -22868,7 +22873,7 @@
         <v>32</v>
       </c>
       <c r="G38" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Will-2016</v>
       </c>
       <c r="H38" s="9">
@@ -22905,14 +22910,14 @@
         <v>59.976975175270852</v>
       </c>
       <c r="S38" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-1.8711132274081812</v>
       </c>
       <c r="T38" s="9">
         <v>3.0909090909090904</v>
       </c>
       <c r="U38" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.23776223776223773</v>
       </c>
       <c r="V38" s="9">
@@ -22922,14 +22927,14 @@
         <v>12</v>
       </c>
       <c r="X38" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="AA38" s="3">
         <v>36</v>
       </c>
       <c r="AB38" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC38" s="3" t="str">
@@ -22945,47 +22950,47 @@
         <v>-0.65088288701210339</v>
       </c>
       <c r="AF38" s="3">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="29"/>
         <v>65.548101273502738</v>
       </c>
       <c r="AG38" s="3">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="29"/>
         <v>68.280180521531975</v>
       </c>
       <c r="AH38" s="3">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="29"/>
         <v>77.003651586639805</v>
       </c>
       <c r="AI38" s="3">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="29"/>
         <v>78.985013118619449</v>
       </c>
       <c r="AJ38" s="3">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="29"/>
         <v>66.502173925959937</v>
       </c>
       <c r="AK38" s="3">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="29"/>
         <v>63.1186501712385</v>
       </c>
       <c r="AL38" s="3">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="29"/>
         <v>56.302128373897872</v>
       </c>
       <c r="AM38" s="3">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="29"/>
         <v>69.76553332673501</v>
       </c>
       <c r="AN38" s="3">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="29"/>
         <v>68.042216404184188</v>
       </c>
       <c r="AO38" s="3">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="29"/>
         <v>73.958407313090419</v>
       </c>
       <c r="AP38" s="3">
-        <f>INDEX($F:$R,MATCH($AA38,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="29"/>
         <v>70.496301723984828</v>
       </c>
     </row>
@@ -22997,11 +23002,11 @@
         <v>1</v>
       </c>
       <c r="C39" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
       <c r="D39" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -23011,7 +23016,7 @@
         <v>27</v>
       </c>
       <c r="G39" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Tony-2017</v>
       </c>
       <c r="H39" s="7">
@@ -23077,7 +23082,7 @@
         <v>37</v>
       </c>
       <c r="AB39" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC39" s="3" t="str">
@@ -23093,47 +23098,47 @@
         <v>-0.66346969068531936</v>
       </c>
       <c r="AF39" s="3">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="29"/>
         <v>96.786258642855643</v>
       </c>
       <c r="AG39" s="3">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="29"/>
         <v>99.066843185260311</v>
       </c>
       <c r="AH39" s="3">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="29"/>
         <v>85.189861194465777</v>
       </c>
       <c r="AI39" s="3">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="29"/>
         <v>82.344432296699821</v>
       </c>
       <c r="AJ39" s="3">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="29"/>
         <v>90.776234694752887</v>
       </c>
       <c r="AK39" s="3">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="29"/>
         <v>76.86824882668698</v>
       </c>
       <c r="AL39" s="3">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="29"/>
         <v>54.342159878294048</v>
       </c>
       <c r="AM39" s="3">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="29"/>
         <v>64.068345387725117</v>
       </c>
       <c r="AN39" s="3">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="29"/>
         <v>58.611533128102153</v>
       </c>
       <c r="AO39" s="3">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="29"/>
         <v>73.750729407070452</v>
       </c>
       <c r="AP39" s="3">
-        <f>INDEX($F:$R,MATCH($AA39,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="29"/>
         <v>73.750729407070452</v>
       </c>
     </row>
@@ -23145,11 +23150,11 @@
         <v>2</v>
       </c>
       <c r="C40" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="D40" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -23159,7 +23164,7 @@
         <v>21</v>
       </c>
       <c r="G40" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Rohit-2017</v>
       </c>
       <c r="H40" s="7">
@@ -23193,18 +23198,18 @@
         <v>92.234025941380892</v>
       </c>
       <c r="R40" s="7">
-        <f t="shared" ref="R40:R48" si="26">Q40</f>
+        <f t="shared" ref="R40:R48" si="30">Q40</f>
         <v>92.234025941380892</v>
       </c>
       <c r="S40" s="9">
-        <f t="shared" ref="S40:S47" si="27">(AVERAGE(H40:R40)-AVERAGE($H$39:$Q$48))/(_xlfn.STDEV.P($H$39:$Q$48)*_xlfn.STDEV.P(H40:R40))+(R40-AVERAGE($R$39:$R$48))/_xlfn.STDEV.P($R$39:$R$48)+(MAX($W$39:$W$48)-W40)/MAX($W$39:$W$48)</f>
+        <f t="shared" ref="S40:S47" si="31">(AVERAGE(H40:R40)-AVERAGE($H$39:$Q$48))/(_xlfn.STDEV.P($H$39:$Q$48)*_xlfn.STDEV.P(H40:R40))+(R40-AVERAGE($R$39:$R$48))/_xlfn.STDEV.P($R$39:$R$48)+(MAX($W$39:$W$48)-W40)/MAX($W$39:$W$48)</f>
         <v>2.3212509543629354</v>
       </c>
       <c r="T40" s="7">
         <v>8.8888888888888893</v>
       </c>
       <c r="U40" s="7">
-        <f t="shared" ref="U40:U48" si="28">T40/12</f>
+        <f t="shared" ref="U40:U48" si="32">T40/12</f>
         <v>0.74074074074074081</v>
       </c>
       <c r="V40" s="7">
@@ -23214,14 +23219,14 @@
         <v>1</v>
       </c>
       <c r="X40" s="7">
-        <f t="shared" ref="X40:X48" si="29">IF(W40=MAX($W$39:$W$48),-1,IF(W40=1,1,""))</f>
+        <f t="shared" ref="X40:X47" si="33">IF(W40=MAX($W$39:$W$48),-1,IF(W40=1,1,""))</f>
         <v>1</v>
       </c>
       <c r="AA40" s="3">
         <v>38</v>
       </c>
       <c r="AB40" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC40" s="3" t="str">
@@ -23237,47 +23242,47 @@
         <v>-0.73414845471252133</v>
       </c>
       <c r="AF40" s="3">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="29"/>
         <v>76.324030028614203</v>
       </c>
       <c r="AG40" s="3">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="29"/>
         <v>57.222298464980568</v>
       </c>
       <c r="AH40" s="3">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="29"/>
         <v>74.464779341596994</v>
       </c>
       <c r="AI40" s="3">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="29"/>
         <v>78.968557742426825</v>
       </c>
       <c r="AJ40" s="3">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="29"/>
         <v>64.525063406108657</v>
       </c>
       <c r="AK40" s="3">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="29"/>
         <v>70.349933677286614</v>
       </c>
       <c r="AL40" s="3">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="29"/>
         <v>55.811728308515043</v>
       </c>
       <c r="AM40" s="3">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="29"/>
         <v>70.471156989015611</v>
       </c>
       <c r="AN40" s="3">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="29"/>
         <v>58.301939166345988</v>
       </c>
       <c r="AO40" s="3">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="29"/>
         <v>72.549301087336673</v>
       </c>
       <c r="AP40" s="3">
-        <f>INDEX($F:$R,MATCH($AA40,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="29"/>
         <v>73.60122143113324</v>
       </c>
     </row>
@@ -23289,11 +23294,11 @@
         <v>3</v>
       </c>
       <c r="C41" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29</v>
       </c>
       <c r="D41" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -23303,7 +23308,7 @@
         <v>37</v>
       </c>
       <c r="G41" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Mili/Vinay-2017</v>
       </c>
       <c r="H41" s="7">
@@ -23337,18 +23342,18 @@
         <v>87.277752303761474</v>
       </c>
       <c r="R41" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>87.277752303761474</v>
       </c>
       <c r="S41" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1.3003958036854788</v>
       </c>
       <c r="T41" s="7">
         <v>5.3333333333333339</v>
       </c>
       <c r="U41" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.44444444444444448</v>
       </c>
       <c r="V41" s="7">
@@ -23358,14 +23363,14 @@
         <v>3</v>
       </c>
       <c r="X41" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA41" s="3">
         <v>39</v>
       </c>
       <c r="AB41" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC41" s="3" t="str">
@@ -23381,47 +23386,47 @@
         <v>-0.75525672788096299</v>
       </c>
       <c r="AF41" s="3">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="29"/>
         <v>74.615713418658714</v>
       </c>
       <c r="AG41" s="3">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="29"/>
         <v>81.105985595679527</v>
       </c>
       <c r="AH41" s="3">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="29"/>
         <v>70.607930111990541</v>
       </c>
       <c r="AI41" s="3">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="29"/>
         <v>77.45794942715608</v>
       </c>
       <c r="AJ41" s="3">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="29"/>
         <v>57.539752947091941</v>
       </c>
       <c r="AK41" s="3">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="29"/>
         <v>70.565388933096258</v>
       </c>
       <c r="AL41" s="3">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="29"/>
         <v>75.405828166740093</v>
       </c>
       <c r="AM41" s="3">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="29"/>
         <v>78.490042365835819</v>
       </c>
       <c r="AN41" s="3">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="29"/>
         <v>67.046950278833094</v>
       </c>
       <c r="AO41" s="3">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="29"/>
         <v>68.461125151281209</v>
       </c>
       <c r="AP41" s="3">
-        <f>INDEX($F:$R,MATCH($AA41,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="29"/>
         <v>66.530454147995641</v>
       </c>
     </row>
@@ -23433,11 +23438,11 @@
         <v>4</v>
       </c>
       <c r="C42" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="D42" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="E42" s="7" t="s">
@@ -23447,7 +23452,7 @@
         <v>25</v>
       </c>
       <c r="G42" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Caryn-2017</v>
       </c>
       <c r="H42" s="7">
@@ -23481,18 +23486,18 @@
         <v>83.286824713923764</v>
       </c>
       <c r="R42" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>83.286824713923764</v>
       </c>
       <c r="S42" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1.0219229146962459</v>
       </c>
       <c r="T42" s="7">
         <v>5.8888888888888902</v>
       </c>
       <c r="U42" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.49074074074074087</v>
       </c>
       <c r="V42" s="7">
@@ -23502,14 +23507,14 @@
         <v>2</v>
       </c>
       <c r="X42" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA42" s="3">
         <v>40</v>
       </c>
       <c r="AB42" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC42" s="3" t="str">
@@ -23525,47 +23530,47 @@
         <v>-1.1502039822164289</v>
       </c>
       <c r="AF42" s="3">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="29"/>
         <v>83.450131364057199</v>
       </c>
       <c r="AG42" s="3">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="29"/>
         <v>67.826088058097596</v>
       </c>
       <c r="AH42" s="3">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="29"/>
         <v>74.533107036134638</v>
       </c>
       <c r="AI42" s="3">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="29"/>
         <v>78.275910902852971</v>
       </c>
       <c r="AJ42" s="3">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="29"/>
         <v>66.802882891024524</v>
       </c>
       <c r="AK42" s="3">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="29"/>
         <v>56.350166655026626</v>
       </c>
       <c r="AL42" s="3">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="29"/>
         <v>73.488252152506561</v>
       </c>
       <c r="AM42" s="3">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="29"/>
         <v>65.722829041265641</v>
       </c>
       <c r="AN42" s="3">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="29"/>
         <v>60.471468238225533</v>
       </c>
       <c r="AO42" s="3">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="29"/>
         <v>64.506990769740014</v>
       </c>
       <c r="AP42" s="3">
-        <f>INDEX($F:$R,MATCH($AA42,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="29"/>
         <v>65.909173086044291</v>
       </c>
     </row>
@@ -23577,11 +23582,11 @@
         <v>5</v>
       </c>
       <c r="C43" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="D43" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>26</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -23591,7 +23596,7 @@
         <v>63</v>
       </c>
       <c r="G43" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Ross-2017</v>
       </c>
       <c r="H43" s="7">
@@ -23625,18 +23630,18 @@
         <v>82.738647110983152</v>
       </c>
       <c r="R43" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>82.738647110983152</v>
       </c>
       <c r="S43" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.43112449246098622</v>
       </c>
       <c r="T43" s="7">
         <v>6.7777777777777777</v>
       </c>
       <c r="U43" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.56481481481481477</v>
       </c>
       <c r="V43" s="7">
@@ -23646,14 +23651,14 @@
         <v>8</v>
       </c>
       <c r="X43" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA43" s="3">
         <v>41</v>
       </c>
       <c r="AB43" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC43" s="3" t="str">
@@ -23669,47 +23674,47 @@
         <v>-1.2057093814899333</v>
       </c>
       <c r="AF43" s="3">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" ref="AF43:AP48" si="34">INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AF$2,2))</f>
         <v>63.462612402968347</v>
       </c>
       <c r="AG43" s="3">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="34"/>
         <v>70.420721573864967</v>
       </c>
       <c r="AH43" s="3">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="34"/>
         <v>62.462647930441875</v>
       </c>
       <c r="AI43" s="3">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="34"/>
         <v>62.380685126993157</v>
       </c>
       <c r="AJ43" s="3">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="34"/>
         <v>19.187667341694535</v>
       </c>
       <c r="AK43" s="3">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="34"/>
         <v>40.594590426217657</v>
       </c>
       <c r="AL43" s="3">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="34"/>
         <v>39.759667306474782</v>
       </c>
       <c r="AM43" s="3">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="34"/>
         <v>54.759424440483222</v>
       </c>
       <c r="AN43" s="3">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="34"/>
         <v>55.500621296222143</v>
       </c>
       <c r="AO43" s="3">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="34"/>
         <v>64.46780743953714</v>
       </c>
       <c r="AP43" s="3">
-        <f>INDEX($F:$R,MATCH($AA43,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="34"/>
         <v>63.43127649513491</v>
       </c>
     </row>
@@ -23721,11 +23726,11 @@
         <v>6</v>
       </c>
       <c r="C44" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29</v>
       </c>
       <c r="D44" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -23735,7 +23740,7 @@
         <v>31</v>
       </c>
       <c r="G44" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Jeff-2017</v>
       </c>
       <c r="H44" s="7">
@@ -23769,18 +23774,18 @@
         <v>80.667554742777895</v>
       </c>
       <c r="R44" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>80.667554742777895</v>
       </c>
       <c r="S44" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.53747973769366109</v>
       </c>
       <c r="T44" s="7">
         <v>5.3333333333333339</v>
       </c>
       <c r="U44" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.44444444444444448</v>
       </c>
       <c r="V44" s="7">
@@ -23790,14 +23795,14 @@
         <v>4</v>
       </c>
       <c r="X44" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA44" s="3">
         <v>42</v>
       </c>
       <c r="AB44" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC44" s="3" t="str">
@@ -23813,47 +23818,47 @@
         <v>-1.4631107743485396</v>
       </c>
       <c r="AF44" s="3">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="34"/>
         <v>61.252427738453292</v>
       </c>
       <c r="AG44" s="3">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="34"/>
         <v>54.09337657105025</v>
       </c>
       <c r="AH44" s="3">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="34"/>
         <v>43.445615124219131</v>
       </c>
       <c r="AI44" s="3">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="34"/>
         <v>15.638018053045208</v>
       </c>
       <c r="AJ44" s="3">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="34"/>
         <v>27.535438840324325</v>
       </c>
       <c r="AK44" s="3">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="34"/>
         <v>33.201626852585477</v>
       </c>
       <c r="AL44" s="3">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="34"/>
         <v>47.328136691133828</v>
       </c>
       <c r="AM44" s="3">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="34"/>
         <v>47.970950221245729</v>
       </c>
       <c r="AN44" s="3">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="34"/>
         <v>45.858101816632988</v>
       </c>
       <c r="AO44" s="3">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="34"/>
         <v>49.531126111864111</v>
       </c>
       <c r="AP44" s="3">
-        <f>INDEX($F:$R,MATCH($AA44,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="34"/>
         <v>52.449589511739283</v>
       </c>
       <c r="AR44" s="3" t="s">
@@ -23868,39 +23873,39 @@
         <v>110.53467811481752</v>
       </c>
       <c r="AU44" s="3">
-        <f t="shared" ref="AU44:BC44" si="30">MAX(AH:AH)</f>
+        <f t="shared" ref="AU44:BC44" si="35">MAX(AH:AH)</f>
         <v>109.67798567945444</v>
       </c>
       <c r="AV44" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>107.34716301405658</v>
       </c>
       <c r="AW44" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>114.96906432406287</v>
       </c>
       <c r="AX44" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>114.16677127310599</v>
       </c>
       <c r="AY44" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>113.06326136645643</v>
       </c>
       <c r="AZ44" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>102.80913620846437</v>
       </c>
       <c r="BA44" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>122.61699605725315</v>
       </c>
       <c r="BB44" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>107.3174336526064</v>
       </c>
       <c r="BC44" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>118.31182273824533</v>
       </c>
     </row>
@@ -23912,11 +23917,11 @@
         <v>7</v>
       </c>
       <c r="C45" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>23</v>
       </c>
       <c r="D45" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
       <c r="E45" s="7" t="s">
@@ -23926,7 +23931,7 @@
         <v>26</v>
       </c>
       <c r="G45" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Akshay-2017</v>
       </c>
       <c r="H45" s="7">
@@ -23960,18 +23965,18 @@
         <v>75.845837810213993</v>
       </c>
       <c r="R45" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>75.845837810213993</v>
       </c>
       <c r="S45" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-0.13731368236251484</v>
       </c>
       <c r="T45" s="7">
         <v>5.8888888888888893</v>
       </c>
       <c r="U45" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.49074074074074076</v>
       </c>
       <c r="V45" s="7">
@@ -23981,14 +23986,14 @@
         <v>6</v>
       </c>
       <c r="X45" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA45" s="3">
         <v>43</v>
       </c>
       <c r="AB45" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC45" s="3" t="str">
@@ -24004,94 +24009,94 @@
         <v>-1.6813045998357476</v>
       </c>
       <c r="AF45" s="3">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="34"/>
         <v>56.352983930484811</v>
       </c>
       <c r="AG45" s="3">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="34"/>
         <v>64.065928315992608</v>
       </c>
       <c r="AH45" s="3">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="34"/>
         <v>72.067140994744591</v>
       </c>
       <c r="AI45" s="3">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="34"/>
         <v>69.861661291205365</v>
       </c>
       <c r="AJ45" s="3">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="34"/>
         <v>72.826802813735767</v>
       </c>
       <c r="AK45" s="3">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="34"/>
         <v>79.951180823966283</v>
       </c>
       <c r="AL45" s="3">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="34"/>
         <v>75.534526952691081</v>
       </c>
       <c r="AM45" s="3">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="34"/>
         <v>76.984350599036659</v>
       </c>
       <c r="AN45" s="3">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="34"/>
         <v>62.010647323667591</v>
       </c>
       <c r="AO45" s="3">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="34"/>
         <v>70.962179589999934</v>
       </c>
       <c r="AP45" s="3">
-        <f>INDEX($F:$R,MATCH($AA45,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="34"/>
         <v>45.839290597591798</v>
       </c>
       <c r="AR45" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AS45" s="3" t="str">
-        <f t="shared" ref="AS45:BC45" si="31">INDEX($AC:$AC,MATCH(AS44,AF:AF,0))</f>
+        <f t="shared" ref="AS45:BC45" si="36">INDEX($AC:$AC,MATCH(AS44,AF:AF,0))</f>
         <v>Abdullah Matata</v>
       </c>
       <c r="AT45" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>Taniquetil Eagles</v>
       </c>
       <c r="AU45" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>Taniquetil Eagles</v>
       </c>
       <c r="AV45" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>da muffins</v>
       </c>
       <c r="AW45" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>Taniquetil Eagles</v>
       </c>
       <c r="AX45" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>The Decepticons</v>
       </c>
       <c r="AY45" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>The Decepticons</v>
       </c>
       <c r="AZ45" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>Avacado Seeds</v>
       </c>
       <c r="BA45" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>The Decepticons</v>
       </c>
       <c r="BB45" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>What Would Gronk Do</v>
       </c>
       <c r="BC45" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>The Decepticons</v>
       </c>
     </row>
@@ -24103,11 +24108,11 @@
         <v>8</v>
       </c>
       <c r="C46" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>26</v>
       </c>
       <c r="D46" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="E46" s="7" t="s">
@@ -24117,7 +24122,7 @@
         <v>32</v>
       </c>
       <c r="G46" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Will-2017</v>
       </c>
       <c r="H46" s="7">
@@ -24151,18 +24156,18 @@
         <v>75.237225289455637</v>
       </c>
       <c r="R46" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>75.237225289455637</v>
       </c>
       <c r="S46" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-0.61575020202332409</v>
       </c>
       <c r="T46" s="7">
         <v>5.6666666666666661</v>
       </c>
       <c r="U46" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.47222222222222215</v>
       </c>
       <c r="V46" s="7">
@@ -24172,14 +24177,14 @@
         <v>10</v>
       </c>
       <c r="X46" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-1</v>
       </c>
       <c r="AA46" s="3">
         <v>44</v>
       </c>
       <c r="AB46" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC46" s="3" t="str">
@@ -24195,47 +24200,47 @@
         <v>-1.6916173967696553</v>
       </c>
       <c r="AF46" s="3">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="34"/>
         <v>67.936528273374236</v>
       </c>
       <c r="AG46" s="3">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="34"/>
         <v>79.767252679339464</v>
       </c>
       <c r="AH46" s="3">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="34"/>
         <v>84.091999142638358</v>
       </c>
       <c r="AI46" s="3">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="34"/>
         <v>75.063555663255869</v>
       </c>
       <c r="AJ46" s="3">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="34"/>
         <v>77.288670868565688</v>
       </c>
       <c r="AK46" s="3">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="34"/>
         <v>42.322639344810867</v>
       </c>
       <c r="AL46" s="3">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="34"/>
         <v>54.057014927774553</v>
       </c>
       <c r="AM46" s="3">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="34"/>
         <v>56.811240471678275</v>
       </c>
       <c r="AN46" s="3">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="34"/>
         <v>61.525768380103479</v>
       </c>
       <c r="AO46" s="3">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="34"/>
         <v>62.618696822980752</v>
       </c>
       <c r="AP46" s="3">
-        <f>INDEX($F:$R,MATCH($AA46,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="34"/>
         <v>59.329142441202279</v>
       </c>
       <c r="AR46" s="3" t="s">
@@ -24246,43 +24251,43 @@
         <v>39.719259479749425</v>
       </c>
       <c r="AT46" s="3">
-        <f t="shared" ref="AT46" si="32">MIN(AG:AG)</f>
+        <f t="shared" ref="AT46" si="37">MIN(AG:AG)</f>
         <v>49.051975747043642</v>
       </c>
       <c r="AU46" s="3">
-        <f t="shared" ref="AU46" si="33">MIN(AH:AH)</f>
+        <f t="shared" ref="AU46" si="38">MIN(AH:AH)</f>
         <v>43.445615124219131</v>
       </c>
       <c r="AV46" s="3">
-        <f t="shared" ref="AV46" si="34">MIN(AI:AI)</f>
+        <f t="shared" ref="AV46" si="39">MIN(AI:AI)</f>
         <v>15.638018053045208</v>
       </c>
       <c r="AW46" s="3">
-        <f t="shared" ref="AW46" si="35">MIN(AJ:AJ)</f>
+        <f t="shared" ref="AW46" si="40">MIN(AJ:AJ)</f>
         <v>19.187667341694535</v>
       </c>
       <c r="AX46" s="3">
-        <f t="shared" ref="AX46" si="36">MIN(AK:AK)</f>
+        <f t="shared" ref="AX46" si="41">MIN(AK:AK)</f>
         <v>33.201626852585477</v>
       </c>
       <c r="AY46" s="3">
-        <f t="shared" ref="AY46" si="37">MIN(AL:AL)</f>
+        <f t="shared" ref="AY46" si="42">MIN(AL:AL)</f>
         <v>39.759667306474782</v>
       </c>
       <c r="AZ46" s="3">
-        <f t="shared" ref="AZ46" si="38">MIN(AM:AM)</f>
+        <f t="shared" ref="AZ46" si="43">MIN(AM:AM)</f>
         <v>47.970950221245729</v>
       </c>
       <c r="BA46" s="3">
-        <f t="shared" ref="BA46" si="39">MIN(AN:AN)</f>
+        <f t="shared" ref="BA46" si="44">MIN(AN:AN)</f>
         <v>45.858101816632988</v>
       </c>
       <c r="BB46" s="3">
-        <f t="shared" ref="BB46" si="40">MIN(AO:AO)</f>
+        <f t="shared" ref="BB46" si="45">MIN(AO:AO)</f>
         <v>48.430272106307008</v>
       </c>
       <c r="BC46" s="3">
-        <f t="shared" ref="BC46" si="41">MIN(AP:AP)</f>
+        <f t="shared" ref="BC46" si="46">MIN(AP:AP)</f>
         <v>45.839290597591798</v>
       </c>
     </row>
@@ -24294,11 +24299,11 @@
         <v>9</v>
       </c>
       <c r="C47" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>28</v>
       </c>
       <c r="D47" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37</v>
       </c>
       <c r="E47" s="7" t="s">
@@ -24308,7 +24313,7 @@
         <v>28</v>
       </c>
       <c r="G47" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Pranay-2017</v>
       </c>
       <c r="H47" s="7">
@@ -24342,18 +24347,18 @@
         <v>73.750729407070452</v>
       </c>
       <c r="R47" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>73.750729407070452</v>
       </c>
       <c r="S47" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-0.66346969068531936</v>
       </c>
       <c r="T47" s="7">
         <v>5.4444444444444446</v>
       </c>
       <c r="U47" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.45370370370370372</v>
       </c>
       <c r="V47" s="7">
@@ -24363,14 +24368,14 @@
         <v>9</v>
       </c>
       <c r="X47" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AA47" s="3">
         <v>45</v>
       </c>
       <c r="AB47" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC47" s="3" t="str">
@@ -24386,94 +24391,94 @@
         <v>-1.7969199561255851</v>
       </c>
       <c r="AF47" s="3">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="34"/>
         <v>85.747471322292867</v>
       </c>
       <c r="AG47" s="3">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="34"/>
         <v>81.317863301167108</v>
       </c>
       <c r="AH47" s="3">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="34"/>
         <v>87.860208432586091</v>
       </c>
       <c r="AI47" s="3">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="34"/>
         <v>59.099808866595851</v>
       </c>
       <c r="AJ47" s="3">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="34"/>
         <v>73.961351076001307</v>
       </c>
       <c r="AK47" s="3">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="34"/>
         <v>74.201290888806369</v>
       </c>
       <c r="AL47" s="3">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="34"/>
         <v>66.424608959221985</v>
       </c>
       <c r="AM47" s="3">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="34"/>
         <v>64.217664255853236</v>
       </c>
       <c r="AN47" s="3">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="34"/>
         <v>73.027337033880983</v>
       </c>
       <c r="AO47" s="3">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="34"/>
         <v>61.439737374658449</v>
       </c>
       <c r="AP47" s="3">
-        <f>INDEX($F:$R,MATCH($AA47,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="34"/>
         <v>61.439737374658449</v>
       </c>
       <c r="AR47" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AS47" s="3" t="str">
-        <f t="shared" ref="AS47:BC47" si="42">INDEX($AC:$AC,MATCH(AS46,AF:AF,0))</f>
+        <f t="shared" ref="AS47:BC47" si="47">INDEX($AC:$AC,MATCH(AS46,AF:AF,0))</f>
         <v>I'm About To Go H.A.M</v>
       </c>
       <c r="AT47" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>Fortune Favors The Bold</v>
       </c>
       <c r="AU47" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>Team Moyer</v>
       </c>
       <c r="AV47" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>Team Moyer</v>
       </c>
       <c r="AW47" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>Do You Even Lift?</v>
       </c>
       <c r="AX47" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>Team Moyer</v>
       </c>
       <c r="AY47" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>Do You Even Lift?</v>
       </c>
       <c r="AZ47" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>Team Moyer</v>
       </c>
       <c r="BA47" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>Team Moyer</v>
       </c>
       <c r="BB47" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>Fortune Favors The Bold</v>
       </c>
       <c r="BC47" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>FETTY WATT</v>
       </c>
     </row>
@@ -24485,11 +24490,11 @@
         <v>10</v>
       </c>
       <c r="C48" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>42</v>
       </c>
       <c r="D48" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45</v>
       </c>
       <c r="E48" s="7" t="s">
@@ -24499,7 +24504,7 @@
         <v>22</v>
       </c>
       <c r="G48" s="10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Galit-2017</v>
       </c>
       <c r="H48" s="7">
@@ -24533,7 +24538,7 @@
         <v>61.439737374658449</v>
       </c>
       <c r="R48" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>61.439737374658449</v>
       </c>
       <c r="S48" s="9">
@@ -24544,7 +24549,7 @@
         <v>4.0000000000000009</v>
       </c>
       <c r="U48" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.33333333333333343</v>
       </c>
       <c r="V48" s="7">
@@ -24561,7 +24566,7 @@
         <v>46</v>
       </c>
       <c r="AB48" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC48" s="3" t="str">
@@ -24577,47 +24582,47 @@
         <v>-1.8711132274081812</v>
       </c>
       <c r="AF48" s="3">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AF$2,2))</f>
+        <f t="shared" si="34"/>
         <v>47.297542068278773</v>
       </c>
       <c r="AG48" s="3">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AG$2,2))</f>
+        <f t="shared" si="34"/>
         <v>49.051975747043642</v>
       </c>
       <c r="AH48" s="3">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AH$2,2))</f>
+        <f t="shared" si="34"/>
         <v>58.987105984594621</v>
       </c>
       <c r="AI48" s="3">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AI$2,2))</f>
+        <f t="shared" si="34"/>
         <v>49.258588130913971</v>
       </c>
       <c r="AJ48" s="3">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AJ$2,2))</f>
+        <f t="shared" si="34"/>
         <v>63.529769944495797</v>
       </c>
       <c r="AK48" s="3">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AK$2,2))</f>
+        <f t="shared" si="34"/>
         <v>64.226303056688849</v>
       </c>
       <c r="AL48" s="3">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AL$2,2))</f>
+        <f t="shared" si="34"/>
         <v>57.551811375181074</v>
       </c>
       <c r="AM48" s="3">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AM$2,2))</f>
+        <f t="shared" si="34"/>
         <v>50.846616067208004</v>
       </c>
       <c r="AN48" s="3">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AN$2,2))</f>
+        <f t="shared" si="34"/>
         <v>57.197979808817195</v>
       </c>
       <c r="AO48" s="3">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AO$2,2))</f>
+        <f t="shared" si="34"/>
         <v>48.430272106307008</v>
       </c>
       <c r="AP48" s="3">
-        <f>INDEX($F:$R,MATCH($AA48,$D:$D,0),RIGHT(AP$2,2))</f>
+        <f t="shared" si="34"/>
         <v>59.976975175270852</v>
       </c>
       <c r="AR48" s="3" t="s">
@@ -24628,43 +24633,43 @@
         <v>84.899091957669654</v>
       </c>
       <c r="AT48" s="3">
-        <f t="shared" ref="AT48:BC48" si="43">MEDIAN(AG:AG)</f>
+        <f t="shared" ref="AT48:BC48" si="48">MEDIAN(AG:AG)</f>
         <v>81.906251459505583</v>
       </c>
       <c r="AU48" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>83.203995288147752</v>
       </c>
       <c r="AV48" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>79.035739674340732</v>
       </c>
       <c r="AW48" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>77.597308455719286</v>
       </c>
       <c r="AX48" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>80.061075505277174</v>
       </c>
       <c r="AY48" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>80.845045573707324</v>
       </c>
       <c r="AZ48" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>77.2796297390951</v>
       </c>
       <c r="BA48" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>77.343348200356502</v>
       </c>
       <c r="BB48" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>80.244022403539617</v>
       </c>
       <c r="BC48" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>82.553929301566257</v>
       </c>
     </row>
@@ -24680,7 +24685,7 @@
         <v>47</v>
       </c>
       <c r="D49" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="E49" s="9" t="s">
@@ -24690,7 +24695,7 @@
         <v>37</v>
       </c>
       <c r="G49" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Mili/Vinay-2018</v>
       </c>
       <c r="H49" s="12">
@@ -24716,19 +24721,19 @@
         <v>99.674308626069688</v>
       </c>
       <c r="O49" s="13">
-        <f t="shared" ref="O49:R49" si="44">$M49</f>
+        <f t="shared" ref="O49:R49" si="49">$M49</f>
         <v>99.674308626069688</v>
       </c>
       <c r="P49" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>99.674308626069688</v>
       </c>
       <c r="Q49" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>99.674308626069688</v>
       </c>
       <c r="R49" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>99.674308626069688</v>
       </c>
       <c r="S49" s="9">
@@ -24761,11 +24766,11 @@
         <v>2</v>
       </c>
       <c r="C50" s="10">
-        <f t="shared" ref="C50:C58" si="45">RANK(U50,$U$3:$U$58)</f>
+        <f t="shared" ref="C50:C58" si="50">RANK(U50,$U$3:$U$58)</f>
         <v>47</v>
       </c>
       <c r="D50" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="E50" s="9" t="s">
@@ -24775,7 +24780,7 @@
         <v>74</v>
       </c>
       <c r="G50" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>MattK-2018</v>
       </c>
       <c r="H50" s="12">
@@ -24797,32 +24802,32 @@
         <v>98.984607762017617</v>
       </c>
       <c r="N50" s="13">
-        <f t="shared" ref="N50:R58" si="46">$M50</f>
+        <f t="shared" ref="N50:R58" si="51">$M50</f>
         <v>98.984607762017617</v>
       </c>
       <c r="O50" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>98.984607762017617</v>
       </c>
       <c r="P50" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>98.984607762017617</v>
       </c>
       <c r="Q50" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>98.984607762017617</v>
       </c>
       <c r="R50" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>98.984607762017617</v>
       </c>
       <c r="S50" s="9">
-        <f t="shared" ref="S50:S58" si="47">(AVERAGE(H50:R50)-AVERAGE($H$49:$Q$58))/(_xlfn.STDEV.P($H$49:$Q$58)*_xlfn.STDEV.P(H50:R50))+(R50-AVERAGE($R$49:$R$58))/_xlfn.STDEV.P($R$49:$R$58)+(MAX($W$49:$W$58)-W50)/MAX($W$49:$W$58)</f>
+        <f t="shared" ref="S50:S58" si="52">(AVERAGE(H50:R50)-AVERAGE($H$49:$Q$58))/(_xlfn.STDEV.P($H$49:$Q$58)*_xlfn.STDEV.P(H50:R50))+(R50-AVERAGE($R$49:$R$58))/_xlfn.STDEV.P($R$49:$R$58)+(MAX($W$49:$W$58)-W50)/MAX($W$49:$W$58)</f>
         <v>2.8218941014963832</v>
       </c>
       <c r="T50" s="13"/>
       <c r="U50" s="9">
-        <f t="shared" ref="U50:U58" si="48">T50/13</f>
+        <f t="shared" ref="U50:U58" si="53">T50/13</f>
         <v>0</v>
       </c>
       <c r="V50" s="13"/>
@@ -24830,7 +24835,7 @@
         <v>2</v>
       </c>
       <c r="X50" s="13" t="str">
-        <f t="shared" ref="X50:X58" si="49">IF(W50=MAX($W$49:$W$58),-1,IF(W50=1,1,""))</f>
+        <f t="shared" ref="X50:X57" si="54">IF(W50=MAX($W$49:$W$58),-1,IF(W50=1,1,""))</f>
         <v/>
       </c>
       <c r="AA50" s="3">
@@ -24845,11 +24850,11 @@
         <v>3</v>
       </c>
       <c r="C51" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>47</v>
       </c>
       <c r="D51" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="E51" s="9" t="s">
@@ -24859,7 +24864,7 @@
         <v>28</v>
       </c>
       <c r="G51" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Pranay-2018</v>
       </c>
       <c r="H51" s="12">
@@ -24881,32 +24886,32 @@
         <v>86.008066512724412</v>
       </c>
       <c r="N51" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>86.008066512724412</v>
       </c>
       <c r="O51" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>86.008066512724412</v>
       </c>
       <c r="P51" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>86.008066512724412</v>
       </c>
       <c r="Q51" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>86.008066512724412</v>
       </c>
       <c r="R51" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>86.008066512724412</v>
       </c>
       <c r="S51" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>1.3248504323842731</v>
       </c>
       <c r="T51" s="13"/>
       <c r="U51" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="V51" s="13"/>
@@ -24914,7 +24919,7 @@
         <v>3</v>
       </c>
       <c r="X51" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AA51" s="3">
@@ -24929,11 +24934,11 @@
         <v>4</v>
       </c>
       <c r="C52" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>47</v>
       </c>
       <c r="D52" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="E52" s="9" t="s">
@@ -24943,7 +24948,7 @@
         <v>25</v>
       </c>
       <c r="G52" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Caryn-2018</v>
       </c>
       <c r="H52" s="12">
@@ -24965,32 +24970,32 @@
         <v>83.020326413713107</v>
       </c>
       <c r="N52" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>83.020326413713107</v>
       </c>
       <c r="O52" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>83.020326413713107</v>
       </c>
       <c r="P52" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>83.020326413713107</v>
       </c>
       <c r="Q52" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>83.020326413713107</v>
       </c>
       <c r="R52" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>83.020326413713107</v>
       </c>
       <c r="S52" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.8707773811481786</v>
       </c>
       <c r="T52" s="13"/>
       <c r="U52" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="V52" s="13"/>
@@ -24998,7 +25003,7 @@
         <v>4</v>
       </c>
       <c r="X52" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AA52" s="3">
@@ -25013,11 +25018,11 @@
         <v>5</v>
       </c>
       <c r="C53" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>47</v>
       </c>
       <c r="D53" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="E53" s="9" t="s">
@@ -25027,7 +25032,7 @@
         <v>23</v>
       </c>
       <c r="G53" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Ally-2018</v>
       </c>
       <c r="H53" s="12">
@@ -25049,32 +25054,32 @@
         <v>78.753072429577642</v>
       </c>
       <c r="N53" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>78.753072429577642</v>
       </c>
       <c r="O53" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>78.753072429577642</v>
       </c>
       <c r="P53" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>78.753072429577642</v>
       </c>
       <c r="Q53" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>78.753072429577642</v>
       </c>
       <c r="R53" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>78.753072429577642</v>
       </c>
       <c r="S53" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.27669383540242665</v>
       </c>
       <c r="T53" s="13"/>
       <c r="U53" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="V53" s="13"/>
@@ -25082,7 +25087,7 @@
         <v>5</v>
       </c>
       <c r="X53" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AA53" s="3">
@@ -25097,11 +25102,11 @@
         <v>6</v>
       </c>
       <c r="C54" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>47</v>
       </c>
       <c r="D54" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="E54" s="9" t="s">
@@ -25111,7 +25116,7 @@
         <v>22</v>
       </c>
       <c r="G54" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Galit-2018</v>
       </c>
       <c r="H54" s="12">
@@ -25133,32 +25138,32 @@
         <v>78.328739015014079</v>
       </c>
       <c r="N54" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>78.328739015014079</v>
       </c>
       <c r="O54" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>78.328739015014079</v>
       </c>
       <c r="P54" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>78.328739015014079</v>
       </c>
       <c r="Q54" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>78.328739015014079</v>
       </c>
       <c r="R54" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>78.328739015014079</v>
       </c>
       <c r="S54" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.21564813485952922</v>
       </c>
       <c r="T54" s="13"/>
       <c r="U54" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="V54" s="13"/>
@@ -25166,7 +25171,7 @@
         <v>6</v>
       </c>
       <c r="X54" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AA54" s="3">
@@ -25181,11 +25186,11 @@
         <v>7</v>
       </c>
       <c r="C55" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>47</v>
       </c>
       <c r="D55" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="E55" s="9" t="s">
@@ -25195,7 +25200,7 @@
         <v>21</v>
       </c>
       <c r="G55" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Rohit-2018</v>
       </c>
       <c r="H55" s="12">
@@ -25217,32 +25222,32 @@
         <v>75.591840688310882</v>
       </c>
       <c r="N55" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>75.591840688310882</v>
       </c>
       <c r="O55" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>75.591840688310882</v>
       </c>
       <c r="P55" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>75.591840688310882</v>
       </c>
       <c r="Q55" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>75.591840688310882</v>
       </c>
       <c r="R55" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>75.591840688310882</v>
       </c>
       <c r="S55" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-0.25649126653118254</v>
       </c>
       <c r="T55" s="13"/>
       <c r="U55" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="V55" s="13"/>
@@ -25250,7 +25255,7 @@
         <v>7</v>
       </c>
       <c r="X55" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AA55" s="3">
@@ -25265,11 +25270,11 @@
         <v>8</v>
       </c>
       <c r="C56" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>47</v>
       </c>
       <c r="D56" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="E56" s="9" t="s">
@@ -25279,7 +25284,7 @@
         <v>31</v>
       </c>
       <c r="G56" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Jeff-2018</v>
       </c>
       <c r="H56" s="12">
@@ -25301,32 +25306,32 @@
         <v>71.991989152864676</v>
       </c>
       <c r="N56" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>71.991989152864676</v>
       </c>
       <c r="O56" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>71.991989152864676</v>
       </c>
       <c r="P56" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>71.991989152864676</v>
       </c>
       <c r="Q56" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>71.991989152864676</v>
       </c>
       <c r="R56" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>71.991989152864676</v>
       </c>
       <c r="S56" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-0.72268470024098663</v>
       </c>
       <c r="T56" s="13"/>
       <c r="U56" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="V56" s="13"/>
@@ -25334,7 +25339,7 @@
         <v>8</v>
       </c>
       <c r="X56" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AA56" s="3">
@@ -25349,11 +25354,11 @@
         <v>9</v>
       </c>
       <c r="C57" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>47</v>
       </c>
       <c r="D57" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="E57" s="9" t="s">
@@ -25363,7 +25368,7 @@
         <v>26</v>
       </c>
       <c r="G57" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Akshay-2018</v>
       </c>
       <c r="H57" s="12">
@@ -25385,32 +25390,32 @@
         <v>71.262338075977937</v>
       </c>
       <c r="N57" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>71.262338075977937</v>
       </c>
       <c r="O57" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>71.262338075977937</v>
       </c>
       <c r="P57" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>71.262338075977937</v>
       </c>
       <c r="Q57" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>71.262338075977937</v>
       </c>
       <c r="R57" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>71.262338075977937</v>
       </c>
       <c r="S57" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-0.87471193922163704</v>
       </c>
       <c r="T57" s="13"/>
       <c r="U57" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="V57" s="13"/>
@@ -25418,7 +25423,7 @@
         <v>9</v>
       </c>
       <c r="X57" s="13" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="AA57" s="3">
@@ -25433,11 +25438,11 @@
         <v>10</v>
       </c>
       <c r="C58" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>47</v>
       </c>
       <c r="D58" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="E58" s="9" t="s">
@@ -25447,7 +25452,7 @@
         <v>27</v>
       </c>
       <c r="G58" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Tony-2018</v>
       </c>
       <c r="H58" s="12">
@@ -25469,32 +25474,32 @@
         <v>62.779920027210252</v>
       </c>
       <c r="N58" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>62.779920027210252</v>
       </c>
       <c r="O58" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>62.779920027210252</v>
       </c>
       <c r="P58" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>62.779920027210252</v>
       </c>
       <c r="Q58" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>62.779920027210252</v>
       </c>
       <c r="R58" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>62.779920027210252</v>
       </c>
       <c r="S58" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>-1.8152674726960107</v>
       </c>
       <c r="T58" s="13"/>
       <c r="U58" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="V58" s="13"/>
@@ -25507,7 +25512,10 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HSUdFzoqU1wdxl1b3umCvcQomyx74IufUkVAEW3cJ3+rayeq6ALIaE9i8dN6cMkLt6ldBbvG0CenAq3xIT7Njw==" saltValue="fkMCxluC/rfy6OO35M1LCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sortState ref="BO2:BO17">
+    <sortCondition ref="BO17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/AllTime/ALLTIME Ranks through 2017 tosee.xlsx
+++ b/AllTime/ALLTIME Ranks through 2017 tosee.xlsx
@@ -876,9 +876,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21196033172590145"/>
+          <c:x val="0.20433037411498609"/>
           <c:y val="4.2512064357848725E-2"/>
-          <c:w val="0.72334669258204953"/>
+          <c:w val="0.7065608422886096"/>
           <c:h val="0.8678328219916096"/>
         </c:manualLayout>
       </c:layout>
@@ -10900,16 +10900,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>404811</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>607218</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>26192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>607217</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:rowOff>73818</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16757,7 +16757,7 @@
       <c r="AF100" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FVoOERP8Bqt09jOsVd9jNOnz/I1uAeleWi8ihJC48KIOENBVHeBio7MVkMl/pP/49pgUZTPbQbXAnXaA/gBEnA==" saltValue="JYZbLf8JtMz7+y1V+kqHrg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -25512,7 +25512,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HSUdFzoqU1wdxl1b3umCvcQomyx74IufUkVAEW3cJ3+rayeq6ALIaE9i8dN6cMkLt6ldBbvG0CenAq3xIT7Njw==" saltValue="fkMCxluC/rfy6OO35M1LCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState ref="BO2:BO17">
     <sortCondition ref="BO17"/>
   </sortState>
